--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
@@ -232,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -282,8 +282,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,21 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -320,32 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +382,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,22 +397,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -397,18 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -471,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -478,12 +484,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,151 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,6 +550,150 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +772,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -814,21 +838,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -842,33 +851,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,121 +877,121 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1041,9 +1041,6 @@
     <xf numFmtId="10" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,19 +1050,22 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1113,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2334,11 +2334,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
+      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2350,8 +2350,7 @@
     <col min="5" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.96428571428571" customWidth="1"/>
-    <col min="10" max="10" width="20.3839285714286" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.3839285714286" customWidth="1"/>
+    <col min="10" max="11" width="20.3839285714286" style="2" customWidth="1"/>
     <col min="12" max="12" width="22.1696428571429" style="2" customWidth="1"/>
     <col min="13" max="14" width="30.0625" customWidth="1"/>
     <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
@@ -2387,7 +2386,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="11"/>
-      <c r="K1" s="5"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="11"/>
       <c r="M1" s="5"/>
       <c r="N1" s="17" t="s">
@@ -2432,7 +2431,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="5"/>
       <c r="N2" s="17"/>
@@ -2471,7 +2470,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="5"/>
       <c r="N3" s="18" t="s">
@@ -2528,10 +2527,10 @@
       <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="19" t="s">
@@ -2601,8 +2600,8 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="19"/>
       <c r="N5" s="20"/>
       <c r="O5" s="20"/>
@@ -2657,14 +2656,14 @@
       <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>0.0251</v>
       </c>
-      <c r="K6" s="9">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$16,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))</f>
-        <v>-25.43</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="K6" s="16">
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
+        <v>-0.0071519795657727</v>
+      </c>
+      <c r="L6" s="15">
         <f>I6/(ROW()-5)</f>
         <v>1</v>
       </c>
@@ -2729,9 +2728,9 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -2765,9 +2764,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="16"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -2801,9 +2800,9 @@
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -2837,9 +2836,9 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="16"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -2873,9 +2872,9 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="16"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -2909,9 +2908,9 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -2945,9 +2944,9 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2981,9 +2980,9 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="16"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -3017,9 +3016,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="16"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -3053,9 +3052,9 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="16"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -3089,9 +3088,9 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="16"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -3125,9 +3124,9 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="16"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -3161,9 +3160,9 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -3197,9 +3196,9 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="16"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -3233,9 +3232,9 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="16"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -3269,9 +3268,9 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -3305,9 +3304,9 @@
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -3341,9 +3340,9 @@
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="16"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -3377,9 +3376,9 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -3413,9 +3412,9 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -3449,9 +3448,9 @@
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -3485,9 +3484,9 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -3521,9 +3520,9 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -3557,9 +3556,9 @@
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -3593,9 +3592,9 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -3629,9 +3628,9 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -3665,9 +3664,9 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="16"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -3701,9 +3700,9 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -3737,9 +3736,9 @@
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -3773,9 +3772,9 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -3809,9 +3808,9 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -3845,9 +3844,9 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -3881,9 +3880,9 @@
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="16"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
@@ -3917,9 +3916,9 @@
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="16"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -3953,9 +3952,9 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="16"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3989,9 +3988,9 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="16"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -4025,9 +4024,9 @@
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="16"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -4061,9 +4060,9 @@
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="16"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="9"/>
@@ -4097,9 +4096,9 @@
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="16"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
@@ -4133,9 +4132,9 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="16"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -4169,9 +4168,9 @@
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="16"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -4205,9 +4204,9 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="16"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="9"/>
@@ -4241,9 +4240,9 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="16"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
       <c r="O49" s="9"/>
@@ -4277,9 +4276,9 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="16"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
       <c r="O50" s="9"/>
@@ -4313,9 +4312,9 @@
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="16"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="9"/>
@@ -4349,9 +4348,9 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="16"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="9"/>
@@ -4385,9 +4384,9 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="16"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
       <c r="O53" s="9"/>
@@ -4421,9 +4420,9 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="16"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
       <c r="O54" s="9"/>
@@ -4457,9 +4456,9 @@
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="16"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
       <c r="O55" s="9"/>
@@ -4493,9 +4492,9 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="16"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
       <c r="O56" s="9"/>
@@ -4529,9 +4528,9 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="16"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
       <c r="O57" s="9"/>
@@ -4565,9 +4564,9 @@
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="16"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
@@ -4601,9 +4600,9 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="16"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
       <c r="O59" s="9"/>
@@ -4637,9 +4636,9 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="16"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="9"/>
@@ -4673,9 +4672,9 @@
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="16"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
       <c r="O61" s="9"/>
@@ -4709,9 +4708,9 @@
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="16"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
       <c r="O62" s="9"/>
@@ -4745,9 +4744,9 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="16"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
       <c r="O63" s="9"/>
@@ -4781,9 +4780,9 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="16"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="9"/>
@@ -4817,9 +4816,9 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="16"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
       <c r="O65" s="9"/>
@@ -4853,9 +4852,9 @@
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="16"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
       <c r="O66" s="9"/>
@@ -4889,9 +4888,9 @@
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="16"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
       <c r="O67" s="9"/>
@@ -4925,9 +4924,9 @@
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="16"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
       <c r="O68" s="9"/>
@@ -4961,9 +4960,9 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="16"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
       <c r="O69" s="9"/>
@@ -4997,9 +4996,9 @@
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="16"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="9"/>
@@ -5033,9 +5032,9 @@
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="16"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="9"/>
@@ -5069,9 +5068,9 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="16"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
       <c r="O72" s="9"/>
@@ -5105,9 +5104,9 @@
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="16"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
       <c r="O73" s="9"/>
@@ -5141,9 +5140,9 @@
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="16"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
       <c r="O74" s="9"/>
@@ -5177,9 +5176,9 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="16"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
       <c r="O75" s="9"/>
@@ -5213,9 +5212,9 @@
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="16"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="9"/>
@@ -5249,9 +5248,9 @@
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="16"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
       <c r="O77" s="9"/>
@@ -5285,9 +5284,9 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="16"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
       <c r="O78" s="9"/>
@@ -5321,9 +5320,9 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="16"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
       <c r="O79" s="9"/>
@@ -5357,9 +5356,9 @@
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="16"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
       <c r="O80" s="9"/>
@@ -5393,9 +5392,9 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="16"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
       <c r="O81" s="9"/>
@@ -5429,9 +5428,9 @@
       <c r="G82" s="9"/>
       <c r="H82" s="9"/>
       <c r="I82" s="9"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="16"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="9"/>
@@ -5465,9 +5464,9 @@
       <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="16"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
       <c r="O83" s="9"/>
@@ -5501,9 +5500,9 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
       <c r="O84" s="9"/>
@@ -5537,9 +5536,9 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
       <c r="O85" s="9"/>
@@ -5573,9 +5572,9 @@
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
       <c r="O86" s="9"/>
@@ -5609,9 +5608,9 @@
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
       <c r="O87" s="9"/>
@@ -5645,9 +5644,9 @@
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="9"/>
@@ -5681,9 +5680,9 @@
       <c r="G89" s="9"/>
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
       <c r="O89" s="9"/>
@@ -5717,9 +5716,9 @@
       <c r="G90" s="9"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
       <c r="O90" s="9"/>
@@ -5753,9 +5752,9 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
       <c r="O91" s="9"/>
@@ -5789,9 +5788,9 @@
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="9"/>
-      <c r="L92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="9"/>
@@ -5825,9 +5824,9 @@
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="9"/>
-      <c r="L93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
       <c r="O93" s="9"/>
@@ -5861,9 +5860,9 @@
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="9"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="9"/>
-      <c r="L94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
       <c r="O94" s="9"/>
@@ -5897,9 +5896,9 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
       <c r="O95" s="9"/>
@@ -5933,9 +5932,9 @@
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="9"/>
-      <c r="L96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
       <c r="O96" s="9"/>
@@ -5969,9 +5968,9 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="9"/>
-      <c r="L97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="15"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
       <c r="O97" s="9"/>
@@ -6005,9 +6004,9 @@
       <c r="G98" s="9"/>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="15"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
       <c r="O98" s="9"/>
@@ -6041,9 +6040,9 @@
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="9"/>
-      <c r="L99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
       <c r="O99" s="9"/>
@@ -6077,9 +6076,9 @@
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
       <c r="O100" s="9"/>
@@ -6113,9 +6112,9 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="15"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
       <c r="O101" s="9"/>
@@ -6149,9 +6148,9 @@
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="9"/>
-      <c r="L102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="15"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
@@ -6185,9 +6184,9 @@
       <c r="G103" s="9"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="9"/>
-      <c r="L103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="15"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
       <c r="O103" s="9"/>
@@ -6221,9 +6220,9 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="9"/>
-      <c r="L104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="15"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
@@ -6257,9 +6256,9 @@
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="9"/>
-      <c r="L105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="15"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
       <c r="O105" s="9"/>
@@ -6293,9 +6292,9 @@
       <c r="G106" s="9"/>
       <c r="H106" s="9"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="9"/>
-      <c r="L106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="15"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
       <c r="O106" s="9"/>
@@ -6329,9 +6328,9 @@
       <c r="G107" s="9"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="9"/>
-      <c r="L107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
@@ -6365,9 +6364,9 @@
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="9"/>
-      <c r="L108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="15"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
       <c r="O108" s="9"/>
@@ -6401,9 +6400,9 @@
       <c r="G109" s="9"/>
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="9"/>
-      <c r="L109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
       <c r="O109" s="9"/>
@@ -6437,9 +6436,9 @@
       <c r="G110" s="9"/>
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="9"/>
-      <c r="L110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="15"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
       <c r="O110" s="9"/>
@@ -6473,9 +6472,9 @@
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="16"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="15"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
       <c r="O111" s="9"/>
@@ -6509,9 +6508,9 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="16"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="15"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
       <c r="O112" s="9"/>
@@ -6545,9 +6544,9 @@
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="16"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="15"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
       <c r="O113" s="9"/>
@@ -6581,9 +6580,9 @@
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="16"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="15"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
       <c r="O114" s="9"/>
@@ -6617,9 +6616,9 @@
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="9"/>
-      <c r="L115" s="16"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
       <c r="O115" s="9"/>
@@ -6651,7 +6650,7 @@
       <c r="G116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="38"/>
-      <c r="K116" s="1"/>
+      <c r="K116" s="38"/>
       <c r="L116" s="38"/>
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
@@ -6673,7 +6672,7 @@
       <c r="G117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="38"/>
-      <c r="K117" s="1"/>
+      <c r="K117" s="38"/>
       <c r="L117" s="38"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
@@ -6695,7 +6694,7 @@
       <c r="G118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="38"/>
-      <c r="K118" s="1"/>
+      <c r="K118" s="38"/>
       <c r="L118" s="38"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
@@ -6717,7 +6716,7 @@
       <c r="G119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="38"/>
-      <c r="K119" s="1"/>
+      <c r="K119" s="38"/>
       <c r="L119" s="38"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
@@ -6739,7 +6738,7 @@
       <c r="G120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="38"/>
-      <c r="K120" s="1"/>
+      <c r="K120" s="38"/>
       <c r="L120" s="38"/>
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
@@ -6761,7 +6760,7 @@
       <c r="G121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="38"/>
-      <c r="K121" s="1"/>
+      <c r="K121" s="38"/>
       <c r="L121" s="38"/>
       <c r="M121" s="1"/>
       <c r="N121" s="1"/>
@@ -6783,7 +6782,7 @@
       <c r="G122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="38"/>
-      <c r="K122" s="1"/>
+      <c r="K122" s="38"/>
       <c r="L122" s="38"/>
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
@@ -6805,7 +6804,7 @@
       <c r="G123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="38"/>
-      <c r="K123" s="1"/>
+      <c r="K123" s="38"/>
       <c r="L123" s="38"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -6827,7 +6826,7 @@
       <c r="G124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="38"/>
-      <c r="K124" s="1"/>
+      <c r="K124" s="38"/>
       <c r="L124" s="38"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
@@ -6849,7 +6848,7 @@
       <c r="G125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="38"/>
-      <c r="K125" s="1"/>
+      <c r="K125" s="38"/>
       <c r="L125" s="38"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
@@ -6871,7 +6870,7 @@
       <c r="G126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="38"/>
-      <c r="K126" s="1"/>
+      <c r="K126" s="38"/>
       <c r="L126" s="38"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
@@ -6893,7 +6892,7 @@
       <c r="G127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="38"/>
-      <c r="K127" s="1"/>
+      <c r="K127" s="38"/>
       <c r="L127" s="38"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
@@ -6915,7 +6914,7 @@
       <c r="G128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="38"/>
-      <c r="K128" s="1"/>
+      <c r="K128" s="38"/>
       <c r="L128" s="38"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
@@ -6937,7 +6936,7 @@
       <c r="G129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="38"/>
-      <c r="K129" s="1"/>
+      <c r="K129" s="38"/>
       <c r="L129" s="38"/>
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
@@ -6959,7 +6958,7 @@
       <c r="G130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="38"/>
-      <c r="K130" s="1"/>
+      <c r="K130" s="38"/>
       <c r="L130" s="38"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
@@ -6981,7 +6980,7 @@
       <c r="G131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="38"/>
-      <c r="K131" s="1"/>
+      <c r="K131" s="38"/>
       <c r="L131" s="38"/>
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
@@ -7003,7 +7002,7 @@
       <c r="G132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="38"/>
-      <c r="K132" s="1"/>
+      <c r="K132" s="38"/>
       <c r="L132" s="38"/>
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
@@ -7025,7 +7024,7 @@
       <c r="G133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="38"/>
-      <c r="K133" s="1"/>
+      <c r="K133" s="38"/>
       <c r="L133" s="38"/>
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
@@ -7047,7 +7046,7 @@
       <c r="G134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="38"/>
-      <c r="K134" s="1"/>
+      <c r="K134" s="38"/>
       <c r="L134" s="38"/>
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
@@ -7069,7 +7068,7 @@
       <c r="G135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="38"/>
-      <c r="K135" s="1"/>
+      <c r="K135" s="38"/>
       <c r="L135" s="38"/>
       <c r="M135" s="1"/>
       <c r="N135" s="1"/>
@@ -7091,7 +7090,7 @@
       <c r="G136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="38"/>
-      <c r="K136" s="1"/>
+      <c r="K136" s="38"/>
       <c r="L136" s="38"/>
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
@@ -7113,7 +7112,7 @@
       <c r="G137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="38"/>
-      <c r="K137" s="1"/>
+      <c r="K137" s="38"/>
       <c r="L137" s="38"/>
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
@@ -7135,7 +7134,7 @@
       <c r="G138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="38"/>
-      <c r="K138" s="1"/>
+      <c r="K138" s="38"/>
       <c r="L138" s="38"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -7157,7 +7156,7 @@
       <c r="G139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="38"/>
-      <c r="K139" s="1"/>
+      <c r="K139" s="38"/>
       <c r="L139" s="38"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -7179,7 +7178,7 @@
       <c r="G140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="38"/>
-      <c r="K140" s="1"/>
+      <c r="K140" s="38"/>
       <c r="L140" s="38"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
@@ -7201,7 +7200,7 @@
       <c r="G141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="38"/>
-      <c r="K141" s="1"/>
+      <c r="K141" s="38"/>
       <c r="L141" s="38"/>
       <c r="M141" s="1"/>
       <c r="N141" s="1"/>
@@ -7223,7 +7222,7 @@
       <c r="G142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="38"/>
-      <c r="K142" s="1"/>
+      <c r="K142" s="38"/>
       <c r="L142" s="38"/>
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
@@ -7245,7 +7244,7 @@
       <c r="G143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="38"/>
-      <c r="K143" s="1"/>
+      <c r="K143" s="38"/>
       <c r="L143" s="38"/>
       <c r="M143" s="1"/>
       <c r="N143" s="1"/>
@@ -7267,7 +7266,7 @@
       <c r="G144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="38"/>
-      <c r="K144" s="1"/>
+      <c r="K144" s="38"/>
       <c r="L144" s="38"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1"/>
@@ -7289,7 +7288,7 @@
       <c r="G145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="38"/>
-      <c r="K145" s="1"/>
+      <c r="K145" s="38"/>
       <c r="L145" s="38"/>
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
@@ -7311,7 +7310,7 @@
       <c r="G146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="38"/>
-      <c r="K146" s="1"/>
+      <c r="K146" s="38"/>
       <c r="L146" s="38"/>
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
@@ -7333,7 +7332,7 @@
       <c r="G147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="38"/>
-      <c r="K147" s="1"/>
+      <c r="K147" s="38"/>
       <c r="L147" s="38"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
@@ -7355,7 +7354,7 @@
       <c r="G148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="38"/>
-      <c r="K148" s="1"/>
+      <c r="K148" s="38"/>
       <c r="L148" s="38"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
@@ -7377,7 +7376,7 @@
       <c r="G149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="38"/>
-      <c r="K149" s="1"/>
+      <c r="K149" s="38"/>
       <c r="L149" s="38"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
@@ -7399,7 +7398,7 @@
       <c r="G150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="38"/>
-      <c r="K150" s="1"/>
+      <c r="K150" s="38"/>
       <c r="L150" s="38"/>
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
@@ -7421,7 +7420,7 @@
       <c r="G151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="38"/>
-      <c r="K151" s="1"/>
+      <c r="K151" s="38"/>
       <c r="L151" s="38"/>
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
@@ -7443,7 +7442,7 @@
       <c r="G152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="38"/>
-      <c r="K152" s="1"/>
+      <c r="K152" s="38"/>
       <c r="L152" s="38"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
@@ -7465,7 +7464,7 @@
       <c r="G153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="38"/>
-      <c r="K153" s="1"/>
+      <c r="K153" s="38"/>
       <c r="L153" s="38"/>
       <c r="M153" s="1"/>
       <c r="N153" s="1"/>
@@ -7487,7 +7486,7 @@
       <c r="G154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="38"/>
-      <c r="K154" s="1"/>
+      <c r="K154" s="38"/>
       <c r="L154" s="38"/>
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
@@ -7509,7 +7508,7 @@
       <c r="G155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="38"/>
-      <c r="K155" s="1"/>
+      <c r="K155" s="38"/>
       <c r="L155" s="38"/>
       <c r="M155" s="1"/>
       <c r="N155" s="1"/>
@@ -7531,7 +7530,7 @@
       <c r="G156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="38"/>
-      <c r="K156" s="1"/>
+      <c r="K156" s="38"/>
       <c r="L156" s="38"/>
       <c r="M156" s="1"/>
       <c r="N156" s="1"/>
@@ -7553,7 +7552,7 @@
       <c r="G157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="38"/>
-      <c r="K157" s="1"/>
+      <c r="K157" s="38"/>
       <c r="L157" s="38"/>
       <c r="M157" s="1"/>
       <c r="N157" s="1"/>
@@ -7575,7 +7574,7 @@
       <c r="G158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="38"/>
-      <c r="K158" s="1"/>
+      <c r="K158" s="38"/>
       <c r="L158" s="38"/>
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
@@ -7597,7 +7596,7 @@
       <c r="G159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="38"/>
-      <c r="K159" s="1"/>
+      <c r="K159" s="38"/>
       <c r="L159" s="38"/>
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
@@ -7619,7 +7618,7 @@
       <c r="G160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="38"/>
-      <c r="K160" s="1"/>
+      <c r="K160" s="38"/>
       <c r="L160" s="38"/>
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
@@ -7641,7 +7640,7 @@
       <c r="G161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="38"/>
-      <c r="K161" s="1"/>
+      <c r="K161" s="38"/>
       <c r="L161" s="38"/>
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
@@ -7663,7 +7662,7 @@
       <c r="G162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="38"/>
-      <c r="K162" s="1"/>
+      <c r="K162" s="38"/>
       <c r="L162" s="38"/>
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
@@ -7685,7 +7684,7 @@
       <c r="G163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="38"/>
-      <c r="K163" s="1"/>
+      <c r="K163" s="38"/>
       <c r="L163" s="38"/>
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
@@ -7707,7 +7706,7 @@
       <c r="G164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="38"/>
-      <c r="K164" s="1"/>
+      <c r="K164" s="38"/>
       <c r="L164" s="38"/>
       <c r="M164" s="1"/>
       <c r="N164" s="1"/>
@@ -7729,7 +7728,7 @@
       <c r="G165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="38"/>
-      <c r="K165" s="1"/>
+      <c r="K165" s="38"/>
       <c r="L165" s="38"/>
       <c r="M165" s="1"/>
       <c r="N165" s="1"/>
@@ -7751,7 +7750,7 @@
       <c r="G166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="38"/>
-      <c r="K166" s="1"/>
+      <c r="K166" s="38"/>
       <c r="L166" s="38"/>
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
@@ -7773,7 +7772,7 @@
       <c r="G167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="38"/>
-      <c r="K167" s="1"/>
+      <c r="K167" s="38"/>
       <c r="L167" s="38"/>
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
@@ -7795,7 +7794,7 @@
       <c r="G168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="38"/>
-      <c r="K168" s="1"/>
+      <c r="K168" s="38"/>
       <c r="L168" s="38"/>
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
@@ -7817,7 +7816,7 @@
       <c r="G169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="38"/>
-      <c r="K169" s="1"/>
+      <c r="K169" s="38"/>
       <c r="L169" s="38"/>
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
@@ -7839,7 +7838,7 @@
       <c r="G170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="38"/>
-      <c r="K170" s="1"/>
+      <c r="K170" s="38"/>
       <c r="L170" s="38"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
@@ -7861,7 +7860,7 @@
       <c r="G171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="38"/>
-      <c r="K171" s="1"/>
+      <c r="K171" s="38"/>
       <c r="L171" s="38"/>
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
@@ -7883,7 +7882,7 @@
       <c r="G172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="38"/>
-      <c r="K172" s="1"/>
+      <c r="K172" s="38"/>
       <c r="L172" s="38"/>
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
@@ -7905,7 +7904,7 @@
       <c r="G173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="38"/>
-      <c r="K173" s="1"/>
+      <c r="K173" s="38"/>
       <c r="L173" s="38"/>
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
@@ -7927,7 +7926,7 @@
       <c r="G174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="38"/>
-      <c r="K174" s="1"/>
+      <c r="K174" s="38"/>
       <c r="L174" s="38"/>
       <c r="M174" s="1"/>
       <c r="N174" s="1"/>
@@ -7949,7 +7948,7 @@
       <c r="G175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="38"/>
-      <c r="K175" s="1"/>
+      <c r="K175" s="38"/>
       <c r="L175" s="38"/>
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
@@ -7971,7 +7970,7 @@
       <c r="G176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="38"/>
-      <c r="K176" s="1"/>
+      <c r="K176" s="38"/>
       <c r="L176" s="38"/>
       <c r="M176" s="1"/>
       <c r="N176" s="1"/>
@@ -7993,7 +7992,7 @@
       <c r="G177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="38"/>
-      <c r="K177" s="1"/>
+      <c r="K177" s="38"/>
       <c r="L177" s="38"/>
       <c r="M177" s="1"/>
       <c r="N177" s="1"/>
@@ -8015,7 +8014,7 @@
       <c r="G178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="38"/>
-      <c r="K178" s="1"/>
+      <c r="K178" s="38"/>
       <c r="L178" s="38"/>
       <c r="M178" s="1"/>
       <c r="N178" s="1"/>
@@ -8037,7 +8036,7 @@
       <c r="G179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="38"/>
-      <c r="K179" s="1"/>
+      <c r="K179" s="38"/>
       <c r="L179" s="38"/>
       <c r="M179" s="1"/>
       <c r="N179" s="1"/>
@@ -8059,7 +8058,7 @@
       <c r="G180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="38"/>
-      <c r="K180" s="1"/>
+      <c r="K180" s="38"/>
       <c r="L180" s="38"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
@@ -8081,7 +8080,7 @@
       <c r="G181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="38"/>
-      <c r="K181" s="1"/>
+      <c r="K181" s="38"/>
       <c r="L181" s="38"/>
       <c r="M181" s="1"/>
       <c r="N181" s="1"/>
@@ -8103,7 +8102,7 @@
       <c r="G182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="38"/>
-      <c r="K182" s="1"/>
+      <c r="K182" s="38"/>
       <c r="L182" s="38"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
@@ -8125,7 +8124,7 @@
       <c r="G183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="38"/>
-      <c r="K183" s="1"/>
+      <c r="K183" s="38"/>
       <c r="L183" s="38"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
@@ -8147,7 +8146,7 @@
       <c r="G184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="38"/>
-      <c r="K184" s="1"/>
+      <c r="K184" s="38"/>
       <c r="L184" s="38"/>
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
@@ -8169,7 +8168,7 @@
       <c r="G185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="38"/>
-      <c r="K185" s="1"/>
+      <c r="K185" s="38"/>
       <c r="L185" s="38"/>
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
@@ -8191,7 +8190,7 @@
       <c r="G186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="38"/>
-      <c r="K186" s="1"/>
+      <c r="K186" s="38"/>
       <c r="L186" s="38"/>
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
@@ -8213,7 +8212,7 @@
       <c r="G187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="38"/>
-      <c r="K187" s="1"/>
+      <c r="K187" s="38"/>
       <c r="L187" s="38"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
@@ -8235,7 +8234,7 @@
       <c r="G188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="38"/>
-      <c r="K188" s="1"/>
+      <c r="K188" s="38"/>
       <c r="L188" s="38"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
@@ -8257,7 +8256,7 @@
       <c r="G189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="38"/>
-      <c r="K189" s="1"/>
+      <c r="K189" s="38"/>
       <c r="L189" s="38"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
@@ -8279,7 +8278,7 @@
       <c r="G190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="38"/>
-      <c r="K190" s="1"/>
+      <c r="K190" s="38"/>
       <c r="L190" s="38"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
@@ -8301,7 +8300,7 @@
       <c r="G191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="38"/>
-      <c r="K191" s="1"/>
+      <c r="K191" s="38"/>
       <c r="L191" s="38"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
@@ -8323,7 +8322,7 @@
       <c r="G192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="38"/>
-      <c r="K192" s="1"/>
+      <c r="K192" s="38"/>
       <c r="L192" s="38"/>
       <c r="M192" s="1"/>
       <c r="N192" s="1"/>
@@ -8345,7 +8344,7 @@
       <c r="G193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="38"/>
-      <c r="K193" s="1"/>
+      <c r="K193" s="38"/>
       <c r="L193" s="38"/>
       <c r="M193" s="1"/>
       <c r="N193" s="1"/>
@@ -8367,7 +8366,7 @@
       <c r="G194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="38"/>
-      <c r="K194" s="1"/>
+      <c r="K194" s="38"/>
       <c r="L194" s="38"/>
       <c r="M194" s="1"/>
       <c r="N194" s="1"/>
@@ -8389,7 +8388,7 @@
       <c r="G195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="38"/>
-      <c r="K195" s="1"/>
+      <c r="K195" s="38"/>
       <c r="L195" s="38"/>
       <c r="M195" s="1"/>
       <c r="N195" s="1"/>
@@ -8411,7 +8410,7 @@
       <c r="G196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="38"/>
-      <c r="K196" s="1"/>
+      <c r="K196" s="38"/>
       <c r="L196" s="38"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1"/>
@@ -8433,7 +8432,7 @@
       <c r="G197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="38"/>
-      <c r="K197" s="1"/>
+      <c r="K197" s="38"/>
       <c r="L197" s="38"/>
       <c r="M197" s="1"/>
       <c r="N197" s="1"/>
@@ -8455,7 +8454,7 @@
       <c r="G198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="38"/>
-      <c r="K198" s="1"/>
+      <c r="K198" s="38"/>
       <c r="L198" s="38"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1"/>
@@ -8477,7 +8476,7 @@
       <c r="G199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="38"/>
-      <c r="K199" s="1"/>
+      <c r="K199" s="38"/>
       <c r="L199" s="38"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
@@ -8499,7 +8498,7 @@
       <c r="G200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="38"/>
-      <c r="K200" s="1"/>
+      <c r="K200" s="38"/>
       <c r="L200" s="38"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
@@ -8521,7 +8520,7 @@
       <c r="G201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="38"/>
-      <c r="K201" s="1"/>
+      <c r="K201" s="38"/>
       <c r="L201" s="38"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
@@ -8543,7 +8542,7 @@
       <c r="G202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="38"/>
-      <c r="K202" s="1"/>
+      <c r="K202" s="38"/>
       <c r="L202" s="38"/>
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
@@ -8565,7 +8564,7 @@
       <c r="G203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="38"/>
-      <c r="K203" s="1"/>
+      <c r="K203" s="38"/>
       <c r="L203" s="38"/>
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
@@ -8587,7 +8586,7 @@
       <c r="G204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="38"/>
-      <c r="K204" s="1"/>
+      <c r="K204" s="38"/>
       <c r="L204" s="38"/>
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
@@ -8609,7 +8608,7 @@
       <c r="G205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="38"/>
-      <c r="K205" s="1"/>
+      <c r="K205" s="38"/>
       <c r="L205" s="38"/>
       <c r="M205" s="1"/>
       <c r="N205" s="1"/>
@@ -8631,7 +8630,7 @@
       <c r="G206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="38"/>
-      <c r="K206" s="1"/>
+      <c r="K206" s="38"/>
       <c r="L206" s="38"/>
       <c r="M206" s="1"/>
       <c r="N206" s="1"/>
@@ -8653,7 +8652,7 @@
       <c r="G207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="38"/>
-      <c r="K207" s="1"/>
+      <c r="K207" s="38"/>
       <c r="L207" s="38"/>
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
@@ -8675,7 +8674,7 @@
       <c r="G208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="38"/>
-      <c r="K208" s="1"/>
+      <c r="K208" s="38"/>
       <c r="L208" s="38"/>
       <c r="M208" s="1"/>
       <c r="N208" s="1"/>
@@ -8697,7 +8696,7 @@
       <c r="G209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="38"/>
-      <c r="K209" s="1"/>
+      <c r="K209" s="38"/>
       <c r="L209" s="38"/>
       <c r="M209" s="1"/>
       <c r="N209" s="1"/>
@@ -8719,7 +8718,7 @@
       <c r="G210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="38"/>
-      <c r="K210" s="1"/>
+      <c r="K210" s="38"/>
       <c r="L210" s="38"/>
       <c r="M210" s="1"/>
       <c r="N210" s="1"/>
@@ -8741,7 +8740,7 @@
       <c r="G211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="38"/>
-      <c r="K211" s="1"/>
+      <c r="K211" s="38"/>
       <c r="L211" s="38"/>
       <c r="M211" s="1"/>
       <c r="N211" s="1"/>
@@ -8763,7 +8762,7 @@
       <c r="G212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="38"/>
-      <c r="K212" s="1"/>
+      <c r="K212" s="38"/>
       <c r="L212" s="38"/>
       <c r="M212" s="1"/>
       <c r="N212" s="1"/>
@@ -8785,7 +8784,7 @@
       <c r="G213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="38"/>
-      <c r="K213" s="1"/>
+      <c r="K213" s="38"/>
       <c r="L213" s="38"/>
       <c r="M213" s="1"/>
       <c r="N213" s="1"/>
@@ -8807,7 +8806,7 @@
       <c r="G214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="38"/>
-      <c r="K214" s="1"/>
+      <c r="K214" s="38"/>
       <c r="L214" s="38"/>
       <c r="M214" s="1"/>
       <c r="N214" s="1"/>
@@ -8829,7 +8828,7 @@
       <c r="G215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="38"/>
-      <c r="K215" s="1"/>
+      <c r="K215" s="38"/>
       <c r="L215" s="38"/>
       <c r="M215" s="1"/>
       <c r="N215" s="1"/>
@@ -8851,7 +8850,7 @@
       <c r="G216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="38"/>
-      <c r="K216" s="1"/>
+      <c r="K216" s="38"/>
       <c r="L216" s="38"/>
       <c r="M216" s="1"/>
       <c r="N216" s="1"/>
@@ -8873,7 +8872,7 @@
       <c r="G217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="38"/>
-      <c r="K217" s="1"/>
+      <c r="K217" s="38"/>
       <c r="L217" s="38"/>
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
@@ -8895,7 +8894,7 @@
       <c r="G218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="38"/>
-      <c r="K218" s="1"/>
+      <c r="K218" s="38"/>
       <c r="L218" s="38"/>
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
@@ -8917,7 +8916,7 @@
       <c r="G219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="38"/>
-      <c r="K219" s="1"/>
+      <c r="K219" s="38"/>
       <c r="L219" s="38"/>
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
@@ -8939,7 +8938,7 @@
       <c r="G220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="38"/>
-      <c r="K220" s="1"/>
+      <c r="K220" s="38"/>
       <c r="L220" s="38"/>
       <c r="M220" s="1"/>
       <c r="N220" s="1"/>
@@ -8961,7 +8960,7 @@
       <c r="G221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="38"/>
-      <c r="K221" s="1"/>
+      <c r="K221" s="38"/>
       <c r="L221" s="38"/>
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
@@ -8983,7 +8982,7 @@
       <c r="G222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="38"/>
-      <c r="K222" s="1"/>
+      <c r="K222" s="38"/>
       <c r="L222" s="38"/>
       <c r="M222" s="1"/>
       <c r="N222" s="1"/>
@@ -9005,7 +9004,7 @@
       <c r="G223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="38"/>
-      <c r="K223" s="1"/>
+      <c r="K223" s="38"/>
       <c r="L223" s="38"/>
       <c r="M223" s="1"/>
       <c r="N223" s="1"/>
@@ -9027,7 +9026,7 @@
       <c r="G224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="38"/>
-      <c r="K224" s="1"/>
+      <c r="K224" s="38"/>
       <c r="L224" s="38"/>
       <c r="M224" s="1"/>
       <c r="N224" s="1"/>
@@ -9049,7 +9048,7 @@
       <c r="G225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="38"/>
-      <c r="K225" s="1"/>
+      <c r="K225" s="38"/>
       <c r="L225" s="38"/>
       <c r="M225" s="1"/>
       <c r="N225" s="1"/>
@@ -9071,7 +9070,7 @@
       <c r="G226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="38"/>
-      <c r="K226" s="1"/>
+      <c r="K226" s="38"/>
       <c r="L226" s="38"/>
       <c r="M226" s="1"/>
       <c r="N226" s="1"/>
@@ -9093,7 +9092,7 @@
       <c r="G227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="38"/>
-      <c r="K227" s="1"/>
+      <c r="K227" s="38"/>
       <c r="L227" s="38"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1"/>
@@ -9115,7 +9114,7 @@
       <c r="G228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="38"/>
-      <c r="K228" s="1"/>
+      <c r="K228" s="38"/>
       <c r="L228" s="38"/>
       <c r="M228" s="1"/>
       <c r="N228" s="1"/>
@@ -9137,7 +9136,7 @@
       <c r="G229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="38"/>
-      <c r="K229" s="1"/>
+      <c r="K229" s="38"/>
       <c r="L229" s="38"/>
       <c r="M229" s="1"/>
       <c r="N229" s="1"/>
@@ -9159,7 +9158,7 @@
       <c r="G230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="38"/>
-      <c r="K230" s="1"/>
+      <c r="K230" s="38"/>
       <c r="L230" s="38"/>
       <c r="M230" s="1"/>
       <c r="N230" s="1"/>
@@ -9181,7 +9180,7 @@
       <c r="G231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="38"/>
-      <c r="K231" s="1"/>
+      <c r="K231" s="38"/>
       <c r="L231" s="38"/>
       <c r="M231" s="1"/>
       <c r="N231" s="1"/>
@@ -9203,7 +9202,7 @@
       <c r="G232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="38"/>
-      <c r="K232" s="1"/>
+      <c r="K232" s="38"/>
       <c r="L232" s="38"/>
       <c r="M232" s="1"/>
       <c r="N232" s="1"/>
@@ -9225,7 +9224,7 @@
       <c r="G233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="38"/>
-      <c r="K233" s="1"/>
+      <c r="K233" s="38"/>
       <c r="L233" s="38"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1"/>
@@ -9247,7 +9246,7 @@
       <c r="G234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="38"/>
-      <c r="K234" s="1"/>
+      <c r="K234" s="38"/>
       <c r="L234" s="38"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
@@ -9269,7 +9268,7 @@
       <c r="G235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="38"/>
-      <c r="K235" s="1"/>
+      <c r="K235" s="38"/>
       <c r="L235" s="38"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
@@ -9291,7 +9290,7 @@
       <c r="G236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="38"/>
-      <c r="K236" s="1"/>
+      <c r="K236" s="38"/>
       <c r="L236" s="38"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
@@ -9313,7 +9312,7 @@
       <c r="G237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="38"/>
-      <c r="K237" s="1"/>
+      <c r="K237" s="38"/>
       <c r="L237" s="38"/>
       <c r="M237" s="1"/>
       <c r="N237" s="1"/>
@@ -9335,7 +9334,7 @@
       <c r="G238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="38"/>
-      <c r="K238" s="1"/>
+      <c r="K238" s="38"/>
       <c r="L238" s="38"/>
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
@@ -9357,7 +9356,7 @@
       <c r="G239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="38"/>
-      <c r="K239" s="1"/>
+      <c r="K239" s="38"/>
       <c r="L239" s="38"/>
       <c r="M239" s="1"/>
       <c r="N239" s="1"/>
@@ -9379,7 +9378,7 @@
       <c r="G240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="38"/>
-      <c r="K240" s="1"/>
+      <c r="K240" s="38"/>
       <c r="L240" s="38"/>
       <c r="M240" s="1"/>
       <c r="N240" s="1"/>
@@ -9401,7 +9400,7 @@
       <c r="G241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="38"/>
-      <c r="K241" s="1"/>
+      <c r="K241" s="38"/>
       <c r="L241" s="38"/>
       <c r="M241" s="1"/>
       <c r="N241" s="1"/>
@@ -9423,7 +9422,7 @@
       <c r="G242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="38"/>
-      <c r="K242" s="1"/>
+      <c r="K242" s="38"/>
       <c r="L242" s="38"/>
       <c r="M242" s="1"/>
       <c r="N242" s="1"/>
@@ -9445,7 +9444,7 @@
       <c r="G243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="38"/>
-      <c r="K243" s="1"/>
+      <c r="K243" s="38"/>
       <c r="L243" s="38"/>
       <c r="M243" s="1"/>
       <c r="N243" s="1"/>
@@ -9467,7 +9466,7 @@
       <c r="G244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="38"/>
-      <c r="K244" s="1"/>
+      <c r="K244" s="38"/>
       <c r="L244" s="38"/>
       <c r="M244" s="1"/>
       <c r="N244" s="1"/>
@@ -9489,7 +9488,7 @@
       <c r="G245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="38"/>
-      <c r="K245" s="1"/>
+      <c r="K245" s="38"/>
       <c r="L245" s="38"/>
       <c r="M245" s="1"/>
       <c r="N245" s="1"/>
@@ -9511,7 +9510,7 @@
       <c r="G246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="38"/>
-      <c r="K246" s="1"/>
+      <c r="K246" s="38"/>
       <c r="L246" s="38"/>
       <c r="M246" s="1"/>
       <c r="N246" s="1"/>
@@ -9533,7 +9532,7 @@
       <c r="G247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="38"/>
-      <c r="K247" s="1"/>
+      <c r="K247" s="38"/>
       <c r="L247" s="38"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1"/>
@@ -9555,7 +9554,7 @@
       <c r="G248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="38"/>
-      <c r="K248" s="1"/>
+      <c r="K248" s="38"/>
       <c r="L248" s="38"/>
       <c r="M248" s="1"/>
       <c r="N248" s="1"/>
@@ -9577,7 +9576,7 @@
       <c r="G249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="38"/>
-      <c r="K249" s="1"/>
+      <c r="K249" s="38"/>
       <c r="L249" s="38"/>
       <c r="M249" s="1"/>
       <c r="N249" s="1"/>
@@ -9599,7 +9598,7 @@
       <c r="G250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="38"/>
-      <c r="K250" s="1"/>
+      <c r="K250" s="38"/>
       <c r="L250" s="38"/>
       <c r="M250" s="1"/>
       <c r="N250" s="1"/>
@@ -9621,7 +9620,7 @@
       <c r="G251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="38"/>
-      <c r="K251" s="1"/>
+      <c r="K251" s="38"/>
       <c r="L251" s="38"/>
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
@@ -9643,7 +9642,7 @@
       <c r="G252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="38"/>
-      <c r="K252" s="1"/>
+      <c r="K252" s="38"/>
       <c r="L252" s="38"/>
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
@@ -9665,7 +9664,7 @@
       <c r="G253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="38"/>
-      <c r="K253" s="1"/>
+      <c r="K253" s="38"/>
       <c r="L253" s="38"/>
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
@@ -9687,7 +9686,7 @@
       <c r="G254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="38"/>
-      <c r="K254" s="1"/>
+      <c r="K254" s="38"/>
       <c r="L254" s="38"/>
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
@@ -9709,7 +9708,7 @@
       <c r="G255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="38"/>
-      <c r="K255" s="1"/>
+      <c r="K255" s="38"/>
       <c r="L255" s="38"/>
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
@@ -9731,7 +9730,7 @@
       <c r="G256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="38"/>
-      <c r="K256" s="1"/>
+      <c r="K256" s="38"/>
       <c r="L256" s="38"/>
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
@@ -9753,7 +9752,7 @@
       <c r="G257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="38"/>
-      <c r="K257" s="1"/>
+      <c r="K257" s="38"/>
       <c r="L257" s="38"/>
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
@@ -9775,7 +9774,7 @@
       <c r="G258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="38"/>
-      <c r="K258" s="1"/>
+      <c r="K258" s="38"/>
       <c r="L258" s="38"/>
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
@@ -9797,7 +9796,7 @@
       <c r="G259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="38"/>
-      <c r="K259" s="1"/>
+      <c r="K259" s="38"/>
       <c r="L259" s="38"/>
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
@@ -9819,7 +9818,7 @@
       <c r="G260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="38"/>
-      <c r="K260" s="1"/>
+      <c r="K260" s="38"/>
       <c r="L260" s="38"/>
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
@@ -9841,7 +9840,7 @@
       <c r="G261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="38"/>
-      <c r="K261" s="1"/>
+      <c r="K261" s="38"/>
       <c r="L261" s="38"/>
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
@@ -9863,7 +9862,7 @@
       <c r="G262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="38"/>
-      <c r="K262" s="1"/>
+      <c r="K262" s="38"/>
       <c r="L262" s="38"/>
       <c r="M262" s="1"/>
       <c r="N262" s="1"/>
@@ -9885,7 +9884,7 @@
       <c r="G263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="38"/>
-      <c r="K263" s="1"/>
+      <c r="K263" s="38"/>
       <c r="L263" s="38"/>
       <c r="M263" s="1"/>
       <c r="N263" s="1"/>
@@ -9907,7 +9906,7 @@
       <c r="G264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="38"/>
-      <c r="K264" s="1"/>
+      <c r="K264" s="38"/>
       <c r="L264" s="38"/>
       <c r="M264" s="1"/>
       <c r="N264" s="1"/>
@@ -9929,7 +9928,7 @@
       <c r="G265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="38"/>
-      <c r="K265" s="1"/>
+      <c r="K265" s="38"/>
       <c r="L265" s="38"/>
       <c r="M265" s="1"/>
       <c r="N265" s="1"/>
@@ -9951,7 +9950,7 @@
       <c r="G266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="38"/>
-      <c r="K266" s="1"/>
+      <c r="K266" s="38"/>
       <c r="L266" s="38"/>
       <c r="M266" s="1"/>
       <c r="N266" s="1"/>
@@ -9973,7 +9972,7 @@
       <c r="G267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="38"/>
-      <c r="K267" s="1"/>
+      <c r="K267" s="38"/>
       <c r="L267" s="38"/>
       <c r="M267" s="1"/>
       <c r="N267" s="1"/>
@@ -9995,7 +9994,7 @@
       <c r="G268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="38"/>
-      <c r="K268" s="1"/>
+      <c r="K268" s="38"/>
       <c r="L268" s="38"/>
       <c r="M268" s="1"/>
       <c r="N268" s="1"/>
@@ -10017,7 +10016,7 @@
       <c r="G269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="38"/>
-      <c r="K269" s="1"/>
+      <c r="K269" s="38"/>
       <c r="L269" s="38"/>
       <c r="M269" s="1"/>
       <c r="N269" s="1"/>
@@ -10039,7 +10038,7 @@
       <c r="G270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="38"/>
-      <c r="K270" s="1"/>
+      <c r="K270" s="38"/>
       <c r="L270" s="38"/>
       <c r="M270" s="1"/>
       <c r="N270" s="1"/>
@@ -10061,7 +10060,7 @@
       <c r="G271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="38"/>
-      <c r="K271" s="1"/>
+      <c r="K271" s="38"/>
       <c r="L271" s="38"/>
       <c r="M271" s="1"/>
       <c r="N271" s="1"/>
@@ -10083,7 +10082,7 @@
       <c r="G272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="38"/>
-      <c r="K272" s="1"/>
+      <c r="K272" s="38"/>
       <c r="L272" s="38"/>
       <c r="M272" s="1"/>
       <c r="N272" s="1"/>
@@ -10105,7 +10104,7 @@
       <c r="G273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="38"/>
-      <c r="K273" s="1"/>
+      <c r="K273" s="38"/>
       <c r="L273" s="38"/>
       <c r="M273" s="1"/>
       <c r="N273" s="1"/>
@@ -10127,7 +10126,7 @@
       <c r="G274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="38"/>
-      <c r="K274" s="1"/>
+      <c r="K274" s="38"/>
       <c r="L274" s="38"/>
       <c r="M274" s="1"/>
       <c r="N274" s="1"/>
@@ -10149,7 +10148,7 @@
       <c r="G275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="38"/>
-      <c r="K275" s="1"/>
+      <c r="K275" s="38"/>
       <c r="L275" s="38"/>
       <c r="M275" s="1"/>
       <c r="N275" s="1"/>
@@ -10171,7 +10170,7 @@
       <c r="G276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="38"/>
-      <c r="K276" s="1"/>
+      <c r="K276" s="38"/>
       <c r="L276" s="38"/>
       <c r="M276" s="1"/>
       <c r="N276" s="1"/>
@@ -10193,7 +10192,7 @@
       <c r="G277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="38"/>
-      <c r="K277" s="1"/>
+      <c r="K277" s="38"/>
       <c r="L277" s="38"/>
       <c r="M277" s="1"/>
       <c r="N277" s="1"/>
@@ -10215,7 +10214,7 @@
       <c r="G278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="38"/>
-      <c r="K278" s="1"/>
+      <c r="K278" s="38"/>
       <c r="L278" s="38"/>
       <c r="M278" s="1"/>
       <c r="N278" s="1"/>
@@ -10237,7 +10236,7 @@
       <c r="G279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="38"/>
-      <c r="K279" s="1"/>
+      <c r="K279" s="38"/>
       <c r="L279" s="38"/>
       <c r="M279" s="1"/>
       <c r="N279" s="1"/>
@@ -10259,7 +10258,7 @@
       <c r="G280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="38"/>
-      <c r="K280" s="1"/>
+      <c r="K280" s="38"/>
       <c r="L280" s="38"/>
       <c r="M280" s="1"/>
       <c r="N280" s="1"/>
@@ -10281,7 +10280,7 @@
       <c r="G281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="38"/>
-      <c r="K281" s="1"/>
+      <c r="K281" s="38"/>
       <c r="L281" s="38"/>
       <c r="M281" s="1"/>
       <c r="N281" s="1"/>
@@ -10303,7 +10302,7 @@
       <c r="G282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="38"/>
-      <c r="K282" s="1"/>
+      <c r="K282" s="38"/>
       <c r="L282" s="38"/>
       <c r="M282" s="1"/>
       <c r="N282" s="1"/>
@@ -10325,7 +10324,7 @@
       <c r="G283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="38"/>
-      <c r="K283" s="1"/>
+      <c r="K283" s="38"/>
       <c r="L283" s="38"/>
       <c r="M283" s="1"/>
       <c r="N283" s="1"/>
@@ -10347,7 +10346,7 @@
       <c r="G284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="38"/>
-      <c r="K284" s="1"/>
+      <c r="K284" s="38"/>
       <c r="L284" s="38"/>
       <c r="M284" s="1"/>
       <c r="N284" s="1"/>
@@ -10369,7 +10368,7 @@
       <c r="G285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="38"/>
-      <c r="K285" s="1"/>
+      <c r="K285" s="38"/>
       <c r="L285" s="38"/>
       <c r="M285" s="1"/>
       <c r="N285" s="1"/>
@@ -10391,7 +10390,7 @@
       <c r="G286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="38"/>
-      <c r="K286" s="1"/>
+      <c r="K286" s="38"/>
       <c r="L286" s="38"/>
       <c r="M286" s="1"/>
       <c r="N286" s="1"/>
@@ -10413,7 +10412,7 @@
       <c r="G287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="38"/>
-      <c r="K287" s="1"/>
+      <c r="K287" s="38"/>
       <c r="L287" s="38"/>
       <c r="M287" s="1"/>
       <c r="N287" s="1"/>
@@ -10435,7 +10434,7 @@
       <c r="G288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="38"/>
-      <c r="K288" s="1"/>
+      <c r="K288" s="38"/>
       <c r="L288" s="38"/>
       <c r="M288" s="1"/>
       <c r="N288" s="1"/>
@@ -10457,7 +10456,7 @@
       <c r="G289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="38"/>
-      <c r="K289" s="1"/>
+      <c r="K289" s="38"/>
       <c r="L289" s="38"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
@@ -10479,7 +10478,7 @@
       <c r="G290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="38"/>
-      <c r="K290" s="1"/>
+      <c r="K290" s="38"/>
       <c r="L290" s="38"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
@@ -10501,7 +10500,7 @@
       <c r="G291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="38"/>
-      <c r="K291" s="1"/>
+      <c r="K291" s="38"/>
       <c r="L291" s="38"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
@@ -10523,7 +10522,7 @@
       <c r="G292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="38"/>
-      <c r="K292" s="1"/>
+      <c r="K292" s="38"/>
       <c r="L292" s="38"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
@@ -10545,7 +10544,7 @@
       <c r="G293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="38"/>
-      <c r="K293" s="1"/>
+      <c r="K293" s="38"/>
       <c r="L293" s="38"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
@@ -10567,7 +10566,7 @@
       <c r="G294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="38"/>
-      <c r="K294" s="1"/>
+      <c r="K294" s="38"/>
       <c r="L294" s="38"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
@@ -10589,7 +10588,7 @@
       <c r="G295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="38"/>
-      <c r="K295" s="1"/>
+      <c r="K295" s="38"/>
       <c r="L295" s="38"/>
       <c r="M295" s="1"/>
       <c r="N295" s="1"/>
@@ -10611,7 +10610,7 @@
       <c r="G296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="38"/>
-      <c r="K296" s="1"/>
+      <c r="K296" s="38"/>
       <c r="L296" s="38"/>
       <c r="M296" s="1"/>
       <c r="N296" s="1"/>
@@ -10633,7 +10632,7 @@
       <c r="G297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="38"/>
-      <c r="K297" s="1"/>
+      <c r="K297" s="38"/>
       <c r="L297" s="38"/>
       <c r="M297" s="1"/>
       <c r="N297" s="1"/>
@@ -10655,7 +10654,7 @@
       <c r="G298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="38"/>
-      <c r="K298" s="1"/>
+      <c r="K298" s="38"/>
       <c r="L298" s="38"/>
       <c r="M298" s="1"/>
       <c r="N298" s="1"/>
@@ -10677,7 +10676,7 @@
       <c r="G299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="38"/>
-      <c r="K299" s="1"/>
+      <c r="K299" s="38"/>
       <c r="L299" s="38"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
@@ -10699,7 +10698,7 @@
       <c r="G300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="38"/>
-      <c r="K300" s="1"/>
+      <c r="K300" s="38"/>
       <c r="L300" s="38"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
@@ -10721,7 +10720,7 @@
       <c r="G301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="38"/>
-      <c r="K301" s="1"/>
+      <c r="K301" s="38"/>
       <c r="L301" s="38"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
@@ -10743,7 +10742,7 @@
       <c r="G302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="38"/>
-      <c r="K302" s="1"/>
+      <c r="K302" s="38"/>
       <c r="L302" s="38"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
@@ -10765,7 +10764,7 @@
       <c r="G303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="38"/>
-      <c r="K303" s="1"/>
+      <c r="K303" s="38"/>
       <c r="L303" s="38"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
@@ -10787,7 +10786,7 @@
       <c r="G304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="38"/>
-      <c r="K304" s="1"/>
+      <c r="K304" s="38"/>
       <c r="L304" s="38"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
@@ -10809,7 +10808,7 @@
       <c r="G305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="38"/>
-      <c r="K305" s="1"/>
+      <c r="K305" s="38"/>
       <c r="L305" s="38"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
@@ -10831,7 +10830,7 @@
       <c r="G306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="38"/>
-      <c r="K306" s="1"/>
+      <c r="K306" s="38"/>
       <c r="L306" s="38"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
@@ -10853,7 +10852,7 @@
       <c r="G307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="38"/>
-      <c r="K307" s="1"/>
+      <c r="K307" s="38"/>
       <c r="L307" s="38"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
@@ -10875,7 +10874,7 @@
       <c r="G308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="38"/>
-      <c r="K308" s="1"/>
+      <c r="K308" s="38"/>
       <c r="L308" s="38"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
@@ -10897,7 +10896,7 @@
       <c r="G309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="38"/>
-      <c r="K309" s="1"/>
+      <c r="K309" s="38"/>
       <c r="L309" s="38"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
@@ -10919,7 +10918,7 @@
       <c r="G310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="38"/>
-      <c r="K310" s="1"/>
+      <c r="K310" s="38"/>
       <c r="L310" s="38"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
@@ -10941,7 +10940,7 @@
       <c r="G311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="38"/>
-      <c r="K311" s="1"/>
+      <c r="K311" s="38"/>
       <c r="L311" s="38"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
@@ -10963,7 +10962,7 @@
       <c r="G312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="38"/>
-      <c r="K312" s="1"/>
+      <c r="K312" s="38"/>
       <c r="L312" s="38"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
@@ -10985,7 +10984,7 @@
       <c r="G313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="38"/>
-      <c r="K313" s="1"/>
+      <c r="K313" s="38"/>
       <c r="L313" s="38"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
@@ -11007,7 +11006,7 @@
       <c r="G314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="38"/>
-      <c r="K314" s="1"/>
+      <c r="K314" s="38"/>
       <c r="L314" s="38"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
@@ -11029,7 +11028,7 @@
       <c r="G315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="38"/>
-      <c r="K315" s="1"/>
+      <c r="K315" s="38"/>
       <c r="L315" s="38"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
@@ -11051,7 +11050,7 @@
       <c r="G316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="38"/>
-      <c r="K316" s="1"/>
+      <c r="K316" s="38"/>
       <c r="L316" s="38"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
@@ -11073,7 +11072,7 @@
       <c r="G317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="38"/>
-      <c r="K317" s="1"/>
+      <c r="K317" s="38"/>
       <c r="L317" s="38"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
@@ -11095,7 +11094,7 @@
       <c r="G318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="38"/>
-      <c r="K318" s="1"/>
+      <c r="K318" s="38"/>
       <c r="L318" s="38"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
@@ -11117,7 +11116,7 @@
       <c r="G319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="38"/>
-      <c r="K319" s="1"/>
+      <c r="K319" s="38"/>
       <c r="L319" s="38"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
@@ -11139,7 +11138,7 @@
       <c r="G320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="38"/>
-      <c r="K320" s="1"/>
+      <c r="K320" s="38"/>
       <c r="L320" s="38"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
@@ -11161,7 +11160,7 @@
       <c r="G321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="38"/>
-      <c r="K321" s="1"/>
+      <c r="K321" s="38"/>
       <c r="L321" s="38"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
@@ -11183,7 +11182,7 @@
       <c r="G322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="38"/>
-      <c r="K322" s="1"/>
+      <c r="K322" s="38"/>
       <c r="L322" s="38"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
@@ -11205,7 +11204,7 @@
       <c r="G323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="38"/>
-      <c r="K323" s="1"/>
+      <c r="K323" s="38"/>
       <c r="L323" s="38"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
@@ -11227,7 +11226,7 @@
       <c r="G324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="38"/>
-      <c r="K324" s="1"/>
+      <c r="K324" s="38"/>
       <c r="L324" s="38"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
@@ -11249,7 +11248,7 @@
       <c r="G325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="38"/>
-      <c r="K325" s="1"/>
+      <c r="K325" s="38"/>
       <c r="L325" s="38"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
@@ -11271,7 +11270,7 @@
       <c r="G326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="38"/>
-      <c r="K326" s="1"/>
+      <c r="K326" s="38"/>
       <c r="L326" s="38"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
@@ -11293,7 +11292,7 @@
       <c r="G327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="38"/>
-      <c r="K327" s="1"/>
+      <c r="K327" s="38"/>
       <c r="L327" s="38"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
@@ -11315,7 +11314,7 @@
       <c r="G328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="38"/>
-      <c r="K328" s="1"/>
+      <c r="K328" s="38"/>
       <c r="L328" s="38"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
@@ -11337,7 +11336,7 @@
       <c r="G329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="38"/>
-      <c r="K329" s="1"/>
+      <c r="K329" s="38"/>
       <c r="L329" s="38"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
@@ -11359,7 +11358,7 @@
       <c r="G330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="38"/>
-      <c r="K330" s="1"/>
+      <c r="K330" s="38"/>
       <c r="L330" s="38"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
@@ -11381,7 +11380,7 @@
       <c r="G331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="38"/>
-      <c r="K331" s="1"/>
+      <c r="K331" s="38"/>
       <c r="L331" s="38"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
@@ -11403,7 +11402,7 @@
       <c r="G332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="38"/>
-      <c r="K332" s="1"/>
+      <c r="K332" s="38"/>
       <c r="L332" s="38"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
@@ -11425,7 +11424,7 @@
       <c r="G333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="38"/>
-      <c r="K333" s="1"/>
+      <c r="K333" s="38"/>
       <c r="L333" s="38"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
@@ -11447,7 +11446,7 @@
       <c r="G334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="38"/>
-      <c r="K334" s="1"/>
+      <c r="K334" s="38"/>
       <c r="L334" s="38"/>
       <c r="M334" s="1"/>
       <c r="N334" s="1"/>
@@ -11469,7 +11468,7 @@
       <c r="G335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="38"/>
-      <c r="K335" s="1"/>
+      <c r="K335" s="38"/>
       <c r="L335" s="38"/>
       <c r="M335" s="1"/>
       <c r="N335" s="1"/>
@@ -11491,7 +11490,7 @@
       <c r="G336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="38"/>
-      <c r="K336" s="1"/>
+      <c r="K336" s="38"/>
       <c r="L336" s="38"/>
       <c r="M336" s="1"/>
       <c r="N336" s="1"/>
@@ -11513,7 +11512,7 @@
       <c r="G337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="38"/>
-      <c r="K337" s="1"/>
+      <c r="K337" s="38"/>
       <c r="L337" s="38"/>
       <c r="M337" s="1"/>
       <c r="N337" s="1"/>
@@ -11535,7 +11534,7 @@
       <c r="G338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="38"/>
-      <c r="K338" s="1"/>
+      <c r="K338" s="38"/>
       <c r="L338" s="38"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
@@ -11557,7 +11556,7 @@
       <c r="G339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="38"/>
-      <c r="K339" s="1"/>
+      <c r="K339" s="38"/>
       <c r="L339" s="38"/>
       <c r="M339" s="1"/>
       <c r="N339" s="1"/>
@@ -11579,7 +11578,7 @@
       <c r="G340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="38"/>
-      <c r="K340" s="1"/>
+      <c r="K340" s="38"/>
       <c r="L340" s="38"/>
       <c r="M340" s="1"/>
       <c r="N340" s="1"/>
@@ -11601,7 +11600,7 @@
       <c r="G341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="38"/>
-      <c r="K341" s="1"/>
+      <c r="K341" s="38"/>
       <c r="L341" s="38"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
@@ -11623,7 +11622,7 @@
       <c r="G342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="38"/>
-      <c r="K342" s="1"/>
+      <c r="K342" s="38"/>
       <c r="L342" s="38"/>
       <c r="M342" s="1"/>
       <c r="N342" s="1"/>
@@ -11645,7 +11644,7 @@
       <c r="G343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="38"/>
-      <c r="K343" s="1"/>
+      <c r="K343" s="38"/>
       <c r="L343" s="38"/>
       <c r="M343" s="1"/>
       <c r="N343" s="1"/>
@@ -11667,7 +11666,7 @@
       <c r="G344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="38"/>
-      <c r="K344" s="1"/>
+      <c r="K344" s="38"/>
       <c r="L344" s="38"/>
       <c r="M344" s="1"/>
       <c r="N344" s="1"/>
@@ -11689,7 +11688,7 @@
       <c r="G345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="38"/>
-      <c r="K345" s="1"/>
+      <c r="K345" s="38"/>
       <c r="L345" s="38"/>
       <c r="M345" s="1"/>
       <c r="N345" s="1"/>
@@ -11711,7 +11710,7 @@
       <c r="G346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="38"/>
-      <c r="K346" s="1"/>
+      <c r="K346" s="38"/>
       <c r="L346" s="38"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
@@ -11733,7 +11732,7 @@
       <c r="G347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="38"/>
-      <c r="K347" s="1"/>
+      <c r="K347" s="38"/>
       <c r="L347" s="38"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
@@ -11755,7 +11754,7 @@
       <c r="G348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="38"/>
-      <c r="K348" s="1"/>
+      <c r="K348" s="38"/>
       <c r="L348" s="38"/>
       <c r="M348" s="1"/>
       <c r="N348" s="1"/>
@@ -11777,7 +11776,7 @@
       <c r="G349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="38"/>
-      <c r="K349" s="1"/>
+      <c r="K349" s="38"/>
       <c r="L349" s="38"/>
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
@@ -11799,7 +11798,7 @@
       <c r="G350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="38"/>
-      <c r="K350" s="1"/>
+      <c r="K350" s="38"/>
       <c r="L350" s="38"/>
       <c r="M350" s="1"/>
       <c r="N350" s="1"/>
@@ -11821,7 +11820,7 @@
       <c r="G351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="38"/>
-      <c r="K351" s="1"/>
+      <c r="K351" s="38"/>
       <c r="L351" s="38"/>
       <c r="M351" s="1"/>
       <c r="N351" s="1"/>
@@ -11843,7 +11842,7 @@
       <c r="G352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="38"/>
-      <c r="K352" s="1"/>
+      <c r="K352" s="38"/>
       <c r="L352" s="38"/>
       <c r="M352" s="1"/>
       <c r="N352" s="1"/>
@@ -11865,7 +11864,7 @@
       <c r="G353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="38"/>
-      <c r="K353" s="1"/>
+      <c r="K353" s="38"/>
       <c r="L353" s="38"/>
       <c r="M353" s="1"/>
       <c r="N353" s="1"/>
@@ -11887,7 +11886,7 @@
       <c r="G354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="38"/>
-      <c r="K354" s="1"/>
+      <c r="K354" s="38"/>
       <c r="L354" s="38"/>
       <c r="M354" s="1"/>
       <c r="N354" s="1"/>
@@ -11909,7 +11908,7 @@
       <c r="G355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="38"/>
-      <c r="K355" s="1"/>
+      <c r="K355" s="38"/>
       <c r="L355" s="38"/>
       <c r="M355" s="1"/>
       <c r="N355" s="1"/>
@@ -11931,7 +11930,7 @@
       <c r="G356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="38"/>
-      <c r="K356" s="1"/>
+      <c r="K356" s="38"/>
       <c r="L356" s="38"/>
       <c r="M356" s="1"/>
       <c r="N356" s="1"/>
@@ -11953,7 +11952,7 @@
       <c r="G357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="38"/>
-      <c r="K357" s="1"/>
+      <c r="K357" s="38"/>
       <c r="L357" s="38"/>
       <c r="M357" s="1"/>
       <c r="N357" s="1"/>
@@ -11975,7 +11974,7 @@
       <c r="G358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="38"/>
-      <c r="K358" s="1"/>
+      <c r="K358" s="38"/>
       <c r="L358" s="38"/>
       <c r="M358" s="1"/>
       <c r="N358" s="1"/>
@@ -11997,7 +11996,7 @@
       <c r="G359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="38"/>
-      <c r="K359" s="1"/>
+      <c r="K359" s="38"/>
       <c r="L359" s="38"/>
       <c r="M359" s="1"/>
       <c r="N359" s="1"/>
@@ -12019,7 +12018,7 @@
       <c r="G360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="38"/>
-      <c r="K360" s="1"/>
+      <c r="K360" s="38"/>
       <c r="L360" s="38"/>
       <c r="M360" s="1"/>
       <c r="N360" s="1"/>
@@ -12041,7 +12040,7 @@
       <c r="G361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="38"/>
-      <c r="K361" s="1"/>
+      <c r="K361" s="38"/>
       <c r="L361" s="38"/>
       <c r="M361" s="1"/>
       <c r="N361" s="1"/>
@@ -12063,7 +12062,7 @@
       <c r="G362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="38"/>
-      <c r="K362" s="1"/>
+      <c r="K362" s="38"/>
       <c r="L362" s="38"/>
       <c r="M362" s="1"/>
       <c r="N362" s="1"/>
@@ -12085,7 +12084,7 @@
       <c r="G363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="38"/>
-      <c r="K363" s="1"/>
+      <c r="K363" s="38"/>
       <c r="L363" s="38"/>
       <c r="M363" s="1"/>
       <c r="N363" s="1"/>
@@ -12107,7 +12106,7 @@
       <c r="G364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="38"/>
-      <c r="K364" s="1"/>
+      <c r="K364" s="38"/>
       <c r="L364" s="38"/>
       <c r="M364" s="1"/>
       <c r="N364" s="1"/>
@@ -12129,7 +12128,7 @@
       <c r="G365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="38"/>
-      <c r="K365" s="1"/>
+      <c r="K365" s="38"/>
       <c r="L365" s="38"/>
       <c r="M365" s="1"/>
       <c r="N365" s="1"/>
@@ -12151,7 +12150,7 @@
       <c r="G366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="38"/>
-      <c r="K366" s="1"/>
+      <c r="K366" s="38"/>
       <c r="L366" s="38"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
@@ -12173,7 +12172,7 @@
       <c r="G367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="38"/>
-      <c r="K367" s="1"/>
+      <c r="K367" s="38"/>
       <c r="L367" s="38"/>
       <c r="M367" s="1"/>
       <c r="N367" s="1"/>
@@ -12195,7 +12194,7 @@
       <c r="G368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="38"/>
-      <c r="K368" s="1"/>
+      <c r="K368" s="38"/>
       <c r="L368" s="38"/>
       <c r="M368" s="1"/>
       <c r="N368" s="1"/>
@@ -12217,7 +12216,7 @@
       <c r="G369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="38"/>
-      <c r="K369" s="1"/>
+      <c r="K369" s="38"/>
       <c r="L369" s="38"/>
       <c r="M369" s="1"/>
       <c r="N369" s="1"/>
@@ -12239,7 +12238,7 @@
       <c r="G370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="38"/>
-      <c r="K370" s="1"/>
+      <c r="K370" s="38"/>
       <c r="L370" s="38"/>
       <c r="M370" s="1"/>
       <c r="N370" s="1"/>
@@ -12261,7 +12260,7 @@
       <c r="G371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="38"/>
-      <c r="K371" s="1"/>
+      <c r="K371" s="38"/>
       <c r="L371" s="38"/>
       <c r="M371" s="1"/>
       <c r="N371" s="1"/>
@@ -12283,7 +12282,7 @@
       <c r="G372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="38"/>
-      <c r="K372" s="1"/>
+      <c r="K372" s="38"/>
       <c r="L372" s="38"/>
       <c r="M372" s="1"/>
       <c r="N372" s="1"/>
@@ -12305,7 +12304,7 @@
       <c r="G373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="38"/>
-      <c r="K373" s="1"/>
+      <c r="K373" s="38"/>
       <c r="L373" s="38"/>
       <c r="M373" s="1"/>
       <c r="N373" s="1"/>
@@ -12327,7 +12326,7 @@
       <c r="G374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="38"/>
-      <c r="K374" s="1"/>
+      <c r="K374" s="38"/>
       <c r="L374" s="38"/>
       <c r="M374" s="1"/>
       <c r="N374" s="1"/>
@@ -12349,7 +12348,7 @@
       <c r="G375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="38"/>
-      <c r="K375" s="1"/>
+      <c r="K375" s="38"/>
       <c r="L375" s="38"/>
       <c r="M375" s="1"/>
       <c r="N375" s="1"/>
@@ -12371,7 +12370,7 @@
       <c r="G376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="38"/>
-      <c r="K376" s="1"/>
+      <c r="K376" s="38"/>
       <c r="L376" s="38"/>
       <c r="M376" s="1"/>
       <c r="N376" s="1"/>
@@ -12393,7 +12392,7 @@
       <c r="G377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="38"/>
-      <c r="K377" s="1"/>
+      <c r="K377" s="38"/>
       <c r="L377" s="38"/>
       <c r="M377" s="1"/>
       <c r="N377" s="1"/>
@@ -12415,7 +12414,7 @@
       <c r="G378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="38"/>
-      <c r="K378" s="1"/>
+      <c r="K378" s="38"/>
       <c r="L378" s="38"/>
       <c r="M378" s="1"/>
       <c r="N378" s="1"/>
@@ -12437,7 +12436,7 @@
       <c r="G379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="38"/>
-      <c r="K379" s="1"/>
+      <c r="K379" s="38"/>
       <c r="L379" s="38"/>
       <c r="M379" s="1"/>
       <c r="N379" s="1"/>
@@ -12459,7 +12458,7 @@
       <c r="G380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="38"/>
-      <c r="K380" s="1"/>
+      <c r="K380" s="38"/>
       <c r="L380" s="38"/>
       <c r="M380" s="1"/>
       <c r="N380" s="1"/>
@@ -12481,7 +12480,7 @@
       <c r="G381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="38"/>
-      <c r="K381" s="1"/>
+      <c r="K381" s="38"/>
       <c r="L381" s="38"/>
       <c r="M381" s="1"/>
       <c r="N381" s="1"/>
@@ -12503,7 +12502,7 @@
       <c r="G382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="38"/>
-      <c r="K382" s="1"/>
+      <c r="K382" s="38"/>
       <c r="L382" s="38"/>
       <c r="M382" s="1"/>
       <c r="N382" s="1"/>
@@ -12525,7 +12524,7 @@
       <c r="G383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="38"/>
-      <c r="K383" s="1"/>
+      <c r="K383" s="38"/>
       <c r="L383" s="38"/>
       <c r="M383" s="1"/>
       <c r="N383" s="1"/>
@@ -12547,7 +12546,7 @@
       <c r="G384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="38"/>
-      <c r="K384" s="1"/>
+      <c r="K384" s="38"/>
       <c r="L384" s="38"/>
       <c r="M384" s="1"/>
       <c r="N384" s="1"/>
@@ -12569,7 +12568,7 @@
       <c r="G385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="38"/>
-      <c r="K385" s="1"/>
+      <c r="K385" s="38"/>
       <c r="L385" s="38"/>
       <c r="M385" s="1"/>
       <c r="N385" s="1"/>
@@ -12591,7 +12590,7 @@
       <c r="G386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="38"/>
-      <c r="K386" s="1"/>
+      <c r="K386" s="38"/>
       <c r="L386" s="38"/>
       <c r="M386" s="1"/>
       <c r="N386" s="1"/>
@@ -12613,7 +12612,7 @@
       <c r="G387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="38"/>
-      <c r="K387" s="1"/>
+      <c r="K387" s="38"/>
       <c r="L387" s="38"/>
       <c r="M387" s="1"/>
       <c r="N387" s="1"/>
@@ -12635,7 +12634,7 @@
       <c r="G388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="38"/>
-      <c r="K388" s="1"/>
+      <c r="K388" s="38"/>
       <c r="L388" s="38"/>
       <c r="M388" s="1"/>
       <c r="N388" s="1"/>
@@ -12657,7 +12656,7 @@
       <c r="G389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="38"/>
-      <c r="K389" s="1"/>
+      <c r="K389" s="38"/>
       <c r="L389" s="38"/>
       <c r="M389" s="1"/>
       <c r="N389" s="1"/>
@@ -12679,7 +12678,7 @@
       <c r="G390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="38"/>
-      <c r="K390" s="1"/>
+      <c r="K390" s="38"/>
       <c r="L390" s="38"/>
       <c r="M390" s="1"/>
       <c r="N390" s="1"/>
@@ -12701,7 +12700,7 @@
       <c r="G391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="38"/>
-      <c r="K391" s="1"/>
+      <c r="K391" s="38"/>
       <c r="L391" s="38"/>
       <c r="M391" s="1"/>
       <c r="N391" s="1"/>
@@ -12723,7 +12722,7 @@
       <c r="G392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="38"/>
-      <c r="K392" s="1"/>
+      <c r="K392" s="38"/>
       <c r="L392" s="38"/>
       <c r="M392" s="1"/>
       <c r="N392" s="1"/>
@@ -12745,7 +12744,7 @@
       <c r="G393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="38"/>
-      <c r="K393" s="1"/>
+      <c r="K393" s="38"/>
       <c r="L393" s="38"/>
       <c r="M393" s="1"/>
       <c r="N393" s="1"/>
@@ -12767,7 +12766,7 @@
       <c r="G394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="38"/>
-      <c r="K394" s="1"/>
+      <c r="K394" s="38"/>
       <c r="L394" s="38"/>
       <c r="M394" s="1"/>
       <c r="N394" s="1"/>
@@ -12789,7 +12788,7 @@
       <c r="G395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="38"/>
-      <c r="K395" s="1"/>
+      <c r="K395" s="38"/>
       <c r="L395" s="38"/>
       <c r="M395" s="1"/>
       <c r="N395" s="1"/>
@@ -12811,7 +12810,7 @@
       <c r="G396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="38"/>
-      <c r="K396" s="1"/>
+      <c r="K396" s="38"/>
       <c r="L396" s="38"/>
       <c r="M396" s="1"/>
       <c r="N396" s="1"/>
@@ -12833,7 +12832,7 @@
       <c r="G397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="38"/>
-      <c r="K397" s="1"/>
+      <c r="K397" s="38"/>
       <c r="L397" s="38"/>
       <c r="M397" s="1"/>
       <c r="N397" s="1"/>
@@ -12855,7 +12854,7 @@
       <c r="G398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="38"/>
-      <c r="K398" s="1"/>
+      <c r="K398" s="38"/>
       <c r="L398" s="38"/>
       <c r="M398" s="1"/>
       <c r="N398" s="1"/>
@@ -12877,7 +12876,7 @@
       <c r="G399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="38"/>
-      <c r="K399" s="1"/>
+      <c r="K399" s="38"/>
       <c r="L399" s="38"/>
       <c r="M399" s="1"/>
       <c r="N399" s="1"/>
@@ -12899,7 +12898,7 @@
       <c r="G400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="38"/>
-      <c r="K400" s="1"/>
+      <c r="K400" s="38"/>
       <c r="L400" s="38"/>
       <c r="M400" s="1"/>
       <c r="N400" s="1"/>
@@ -12921,7 +12920,7 @@
       <c r="G401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="38"/>
-      <c r="K401" s="1"/>
+      <c r="K401" s="38"/>
       <c r="L401" s="38"/>
       <c r="M401" s="1"/>
       <c r="N401" s="1"/>
@@ -12943,7 +12942,7 @@
       <c r="G402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="38"/>
-      <c r="K402" s="1"/>
+      <c r="K402" s="38"/>
       <c r="L402" s="38"/>
       <c r="M402" s="1"/>
       <c r="N402" s="1"/>
@@ -12965,7 +12964,7 @@
       <c r="G403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="38"/>
-      <c r="K403" s="1"/>
+      <c r="K403" s="38"/>
       <c r="L403" s="38"/>
       <c r="M403" s="1"/>
       <c r="N403" s="1"/>
@@ -12987,7 +12986,7 @@
       <c r="G404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="38"/>
-      <c r="K404" s="1"/>
+      <c r="K404" s="38"/>
       <c r="L404" s="38"/>
       <c r="M404" s="1"/>
       <c r="N404" s="1"/>
@@ -13009,7 +13008,7 @@
       <c r="G405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="38"/>
-      <c r="K405" s="1"/>
+      <c r="K405" s="38"/>
       <c r="L405" s="38"/>
       <c r="M405" s="1"/>
       <c r="N405" s="1"/>
@@ -13031,7 +13030,7 @@
       <c r="G406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="38"/>
-      <c r="K406" s="1"/>
+      <c r="K406" s="38"/>
       <c r="L406" s="38"/>
       <c r="M406" s="1"/>
       <c r="N406" s="1"/>
@@ -13053,7 +13052,7 @@
       <c r="G407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="38"/>
-      <c r="K407" s="1"/>
+      <c r="K407" s="38"/>
       <c r="L407" s="38"/>
       <c r="M407" s="1"/>
       <c r="N407" s="1"/>
@@ -13075,7 +13074,7 @@
       <c r="G408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="38"/>
-      <c r="K408" s="1"/>
+      <c r="K408" s="38"/>
       <c r="L408" s="38"/>
       <c r="M408" s="1"/>
       <c r="N408" s="1"/>
@@ -13097,7 +13096,7 @@
       <c r="G409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="38"/>
-      <c r="K409" s="1"/>
+      <c r="K409" s="38"/>
       <c r="L409" s="38"/>
       <c r="M409" s="1"/>
       <c r="N409" s="1"/>
@@ -13119,7 +13118,7 @@
       <c r="G410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="38"/>
-      <c r="K410" s="1"/>
+      <c r="K410" s="38"/>
       <c r="L410" s="38"/>
       <c r="M410" s="1"/>
       <c r="N410" s="1"/>
@@ -13141,7 +13140,7 @@
       <c r="G411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="38"/>
-      <c r="K411" s="1"/>
+      <c r="K411" s="38"/>
       <c r="L411" s="38"/>
       <c r="M411" s="1"/>
       <c r="N411" s="1"/>
@@ -13163,7 +13162,7 @@
       <c r="G412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="38"/>
-      <c r="K412" s="1"/>
+      <c r="K412" s="38"/>
       <c r="L412" s="38"/>
       <c r="M412" s="1"/>
       <c r="N412" s="1"/>
@@ -13185,7 +13184,7 @@
       <c r="G413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="38"/>
-      <c r="K413" s="1"/>
+      <c r="K413" s="38"/>
       <c r="L413" s="38"/>
       <c r="M413" s="1"/>
       <c r="N413" s="1"/>
@@ -13207,7 +13206,7 @@
       <c r="G414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="38"/>
-      <c r="K414" s="1"/>
+      <c r="K414" s="38"/>
       <c r="L414" s="38"/>
       <c r="M414" s="1"/>
       <c r="N414" s="1"/>
@@ -13229,7 +13228,7 @@
       <c r="G415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="38"/>
-      <c r="K415" s="1"/>
+      <c r="K415" s="38"/>
       <c r="L415" s="38"/>
       <c r="M415" s="1"/>
       <c r="N415" s="1"/>
@@ -13251,7 +13250,7 @@
       <c r="G416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="38"/>
-      <c r="K416" s="1"/>
+      <c r="K416" s="38"/>
       <c r="L416" s="38"/>
       <c r="M416" s="1"/>
       <c r="N416" s="1"/>
@@ -13273,7 +13272,7 @@
       <c r="G417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="38"/>
-      <c r="K417" s="1"/>
+      <c r="K417" s="38"/>
       <c r="L417" s="38"/>
       <c r="M417" s="1"/>
       <c r="N417" s="1"/>
@@ -13295,7 +13294,7 @@
       <c r="G418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="38"/>
-      <c r="K418" s="1"/>
+      <c r="K418" s="38"/>
       <c r="L418" s="38"/>
       <c r="M418" s="1"/>
       <c r="N418" s="1"/>
@@ -13317,7 +13316,7 @@
       <c r="G419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="38"/>
-      <c r="K419" s="1"/>
+      <c r="K419" s="38"/>
       <c r="L419" s="38"/>
       <c r="M419" s="1"/>
       <c r="N419" s="1"/>
@@ -13339,7 +13338,7 @@
       <c r="G420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="38"/>
-      <c r="K420" s="1"/>
+      <c r="K420" s="38"/>
       <c r="L420" s="38"/>
       <c r="M420" s="1"/>
       <c r="N420" s="1"/>
@@ -13361,7 +13360,7 @@
       <c r="G421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="38"/>
-      <c r="K421" s="1"/>
+      <c r="K421" s="38"/>
       <c r="L421" s="38"/>
       <c r="M421" s="1"/>
       <c r="N421" s="1"/>
@@ -13383,7 +13382,7 @@
       <c r="G422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="38"/>
-      <c r="K422" s="1"/>
+      <c r="K422" s="38"/>
       <c r="L422" s="38"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
@@ -13405,7 +13404,7 @@
       <c r="G423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="38"/>
-      <c r="K423" s="1"/>
+      <c r="K423" s="38"/>
       <c r="L423" s="38"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
@@ -13427,7 +13426,7 @@
       <c r="G424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="38"/>
-      <c r="K424" s="1"/>
+      <c r="K424" s="38"/>
       <c r="L424" s="38"/>
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
@@ -13449,7 +13448,7 @@
       <c r="G425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="38"/>
-      <c r="K425" s="1"/>
+      <c r="K425" s="38"/>
       <c r="L425" s="38"/>
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
@@ -13471,7 +13470,7 @@
       <c r="G426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="38"/>
-      <c r="K426" s="1"/>
+      <c r="K426" s="38"/>
       <c r="L426" s="38"/>
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
@@ -13493,7 +13492,7 @@
       <c r="G427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="38"/>
-      <c r="K427" s="1"/>
+      <c r="K427" s="38"/>
       <c r="L427" s="38"/>
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
@@ -13515,7 +13514,7 @@
       <c r="G428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="38"/>
-      <c r="K428" s="1"/>
+      <c r="K428" s="38"/>
       <c r="L428" s="38"/>
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
@@ -13537,7 +13536,7 @@
       <c r="G429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="38"/>
-      <c r="K429" s="1"/>
+      <c r="K429" s="38"/>
       <c r="L429" s="38"/>
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
@@ -13559,7 +13558,7 @@
       <c r="G430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="38"/>
-      <c r="K430" s="1"/>
+      <c r="K430" s="38"/>
       <c r="L430" s="38"/>
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
@@ -13581,7 +13580,7 @@
       <c r="G431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="38"/>
-      <c r="K431" s="1"/>
+      <c r="K431" s="38"/>
       <c r="L431" s="38"/>
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
@@ -13603,7 +13602,7 @@
       <c r="G432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="38"/>
-      <c r="K432" s="1"/>
+      <c r="K432" s="38"/>
       <c r="L432" s="38"/>
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
@@ -13625,7 +13624,7 @@
       <c r="G433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="38"/>
-      <c r="K433" s="1"/>
+      <c r="K433" s="38"/>
       <c r="L433" s="38"/>
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
@@ -13647,7 +13646,7 @@
       <c r="G434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="38"/>
-      <c r="K434" s="1"/>
+      <c r="K434" s="38"/>
       <c r="L434" s="38"/>
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
@@ -13669,7 +13668,7 @@
       <c r="G435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="38"/>
-      <c r="K435" s="1"/>
+      <c r="K435" s="38"/>
       <c r="L435" s="38"/>
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
@@ -13691,7 +13690,7 @@
       <c r="G436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="38"/>
-      <c r="K436" s="1"/>
+      <c r="K436" s="38"/>
       <c r="L436" s="38"/>
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
@@ -13713,7 +13712,7 @@
       <c r="G437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="38"/>
-      <c r="K437" s="1"/>
+      <c r="K437" s="38"/>
       <c r="L437" s="38"/>
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
@@ -13735,7 +13734,7 @@
       <c r="G438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="38"/>
-      <c r="K438" s="1"/>
+      <c r="K438" s="38"/>
       <c r="L438" s="38"/>
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
@@ -13757,7 +13756,7 @@
       <c r="G439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="38"/>
-      <c r="K439" s="1"/>
+      <c r="K439" s="38"/>
       <c r="L439" s="38"/>
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
@@ -13779,7 +13778,7 @@
       <c r="G440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="38"/>
-      <c r="K440" s="1"/>
+      <c r="K440" s="38"/>
       <c r="L440" s="38"/>
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
@@ -13801,7 +13800,7 @@
       <c r="G441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="38"/>
-      <c r="K441" s="1"/>
+      <c r="K441" s="38"/>
       <c r="L441" s="38"/>
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
@@ -13823,7 +13822,7 @@
       <c r="G442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="38"/>
-      <c r="K442" s="1"/>
+      <c r="K442" s="38"/>
       <c r="L442" s="38"/>
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
@@ -13845,7 +13844,7 @@
       <c r="G443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="38"/>
-      <c r="K443" s="1"/>
+      <c r="K443" s="38"/>
       <c r="L443" s="38"/>
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
@@ -13867,7 +13866,7 @@
       <c r="G444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="38"/>
-      <c r="K444" s="1"/>
+      <c r="K444" s="38"/>
       <c r="L444" s="38"/>
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
@@ -13889,7 +13888,7 @@
       <c r="G445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="38"/>
-      <c r="K445" s="1"/>
+      <c r="K445" s="38"/>
       <c r="L445" s="38"/>
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
@@ -13911,7 +13910,7 @@
       <c r="G446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="38"/>
-      <c r="K446" s="1"/>
+      <c r="K446" s="38"/>
       <c r="L446" s="38"/>
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
@@ -13933,7 +13932,7 @@
       <c r="G447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="38"/>
-      <c r="K447" s="1"/>
+      <c r="K447" s="38"/>
       <c r="L447" s="38"/>
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
@@ -13955,7 +13954,7 @@
       <c r="G448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="38"/>
-      <c r="K448" s="1"/>
+      <c r="K448" s="38"/>
       <c r="L448" s="38"/>
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
@@ -13977,7 +13976,7 @@
       <c r="G449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="38"/>
-      <c r="K449" s="1"/>
+      <c r="K449" s="38"/>
       <c r="L449" s="38"/>
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
@@ -13999,7 +13998,7 @@
       <c r="G450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="38"/>
-      <c r="K450" s="1"/>
+      <c r="K450" s="38"/>
       <c r="L450" s="38"/>
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
@@ -14021,7 +14020,7 @@
       <c r="G451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="38"/>
-      <c r="K451" s="1"/>
+      <c r="K451" s="38"/>
       <c r="L451" s="38"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
@@ -14043,7 +14042,7 @@
       <c r="G452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="38"/>
-      <c r="K452" s="1"/>
+      <c r="K452" s="38"/>
       <c r="L452" s="38"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
@@ -14065,7 +14064,7 @@
       <c r="G453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="38"/>
-      <c r="K453" s="1"/>
+      <c r="K453" s="38"/>
       <c r="L453" s="38"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
@@ -14087,7 +14086,7 @@
       <c r="G454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="38"/>
-      <c r="K454" s="1"/>
+      <c r="K454" s="38"/>
       <c r="L454" s="38"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
@@ -14109,7 +14108,7 @@
       <c r="G455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="38"/>
-      <c r="K455" s="1"/>
+      <c r="K455" s="38"/>
       <c r="L455" s="38"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
@@ -14131,7 +14130,7 @@
       <c r="G456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="38"/>
-      <c r="K456" s="1"/>
+      <c r="K456" s="38"/>
       <c r="L456" s="38"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
@@ -14153,7 +14152,7 @@
       <c r="G457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="38"/>
-      <c r="K457" s="1"/>
+      <c r="K457" s="38"/>
       <c r="L457" s="38"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
@@ -14175,7 +14174,7 @@
       <c r="G458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="38"/>
-      <c r="K458" s="1"/>
+      <c r="K458" s="38"/>
       <c r="L458" s="38"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
@@ -14197,7 +14196,7 @@
       <c r="G459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="38"/>
-      <c r="K459" s="1"/>
+      <c r="K459" s="38"/>
       <c r="L459" s="38"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
@@ -14219,7 +14218,7 @@
       <c r="G460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="38"/>
-      <c r="K460" s="1"/>
+      <c r="K460" s="38"/>
       <c r="L460" s="38"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
@@ -14241,7 +14240,7 @@
       <c r="G461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="38"/>
-      <c r="K461" s="1"/>
+      <c r="K461" s="38"/>
       <c r="L461" s="38"/>
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
@@ -14263,7 +14262,7 @@
       <c r="G462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="38"/>
-      <c r="K462" s="1"/>
+      <c r="K462" s="38"/>
       <c r="L462" s="38"/>
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
@@ -14285,7 +14284,7 @@
       <c r="G463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="38"/>
-      <c r="K463" s="1"/>
+      <c r="K463" s="38"/>
       <c r="L463" s="38"/>
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
@@ -14307,7 +14306,7 @@
       <c r="G464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="38"/>
-      <c r="K464" s="1"/>
+      <c r="K464" s="38"/>
       <c r="L464" s="38"/>
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
@@ -14329,7 +14328,7 @@
       <c r="G465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="38"/>
-      <c r="K465" s="1"/>
+      <c r="K465" s="38"/>
       <c r="L465" s="38"/>
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
@@ -14351,7 +14350,7 @@
       <c r="G466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="38"/>
-      <c r="K466" s="1"/>
+      <c r="K466" s="38"/>
       <c r="L466" s="38"/>
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
@@ -14373,7 +14372,7 @@
       <c r="G467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="38"/>
-      <c r="K467" s="1"/>
+      <c r="K467" s="38"/>
       <c r="L467" s="38"/>
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
@@ -14395,7 +14394,7 @@
       <c r="G468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="38"/>
-      <c r="K468" s="1"/>
+      <c r="K468" s="38"/>
       <c r="L468" s="38"/>
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
@@ -14417,7 +14416,7 @@
       <c r="G469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="38"/>
-      <c r="K469" s="1"/>
+      <c r="K469" s="38"/>
       <c r="L469" s="38"/>
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
@@ -14439,7 +14438,7 @@
       <c r="G470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="38"/>
-      <c r="K470" s="1"/>
+      <c r="K470" s="38"/>
       <c r="L470" s="38"/>
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
@@ -14461,7 +14460,7 @@
       <c r="G471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="38"/>
-      <c r="K471" s="1"/>
+      <c r="K471" s="38"/>
       <c r="L471" s="38"/>
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
@@ -14483,7 +14482,7 @@
       <c r="G472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="38"/>
-      <c r="K472" s="1"/>
+      <c r="K472" s="38"/>
       <c r="L472" s="38"/>
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
@@ -14505,7 +14504,7 @@
       <c r="G473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="38"/>
-      <c r="K473" s="1"/>
+      <c r="K473" s="38"/>
       <c r="L473" s="38"/>
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
@@ -14527,7 +14526,7 @@
       <c r="G474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="38"/>
-      <c r="K474" s="1"/>
+      <c r="K474" s="38"/>
       <c r="L474" s="38"/>
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
@@ -14549,7 +14548,7 @@
       <c r="G475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="38"/>
-      <c r="K475" s="1"/>
+      <c r="K475" s="38"/>
       <c r="L475" s="38"/>
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
@@ -14571,7 +14570,7 @@
       <c r="G476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="38"/>
-      <c r="K476" s="1"/>
+      <c r="K476" s="38"/>
       <c r="L476" s="38"/>
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
@@ -14593,7 +14592,7 @@
       <c r="G477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="38"/>
-      <c r="K477" s="1"/>
+      <c r="K477" s="38"/>
       <c r="L477" s="38"/>
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
@@ -14615,7 +14614,7 @@
       <c r="G478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="38"/>
-      <c r="K478" s="1"/>
+      <c r="K478" s="38"/>
       <c r="L478" s="38"/>
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
@@ -14637,7 +14636,7 @@
       <c r="G479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="38"/>
-      <c r="K479" s="1"/>
+      <c r="K479" s="38"/>
       <c r="L479" s="38"/>
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
@@ -14659,7 +14658,7 @@
       <c r="G480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="38"/>
-      <c r="K480" s="1"/>
+      <c r="K480" s="38"/>
       <c r="L480" s="38"/>
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
@@ -14681,7 +14680,7 @@
       <c r="G481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="38"/>
-      <c r="K481" s="1"/>
+      <c r="K481" s="38"/>
       <c r="L481" s="38"/>
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
@@ -14703,7 +14702,7 @@
       <c r="G482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="38"/>
-      <c r="K482" s="1"/>
+      <c r="K482" s="38"/>
       <c r="L482" s="38"/>
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
@@ -14725,7 +14724,7 @@
       <c r="G483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="38"/>
-      <c r="K483" s="1"/>
+      <c r="K483" s="38"/>
       <c r="L483" s="38"/>
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
@@ -14747,7 +14746,7 @@
       <c r="G484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="38"/>
-      <c r="K484" s="1"/>
+      <c r="K484" s="38"/>
       <c r="L484" s="38"/>
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
@@ -14769,7 +14768,7 @@
       <c r="G485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="38"/>
-      <c r="K485" s="1"/>
+      <c r="K485" s="38"/>
       <c r="L485" s="38"/>
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
@@ -14791,7 +14790,7 @@
       <c r="G486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="38"/>
-      <c r="K486" s="1"/>
+      <c r="K486" s="38"/>
       <c r="L486" s="38"/>
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
@@ -232,10 +232,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -268,17 +268,11 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,16 +284,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,6 +318,14 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,30 +347,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,30 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +400,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,55 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,43 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,13 +573,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,43 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,8 +757,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,11 +772,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +798,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,11 +830,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,168 +851,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1203,80 +1203,77 @@
           <cell r="D4" t="str">
             <v>楚天龙</v>
           </cell>
-          <cell r="E4">
-            <v>44523</v>
-          </cell>
-          <cell r="F4">
-            <v>26.2</v>
-          </cell>
-          <cell r="G4">
-            <v>200</v>
-          </cell>
-          <cell r="H4">
-            <v>5</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>5245</v>
-          </cell>
-          <cell r="K4">
-            <v>26.5</v>
-          </cell>
-          <cell r="L4">
-            <v>25.21</v>
-          </cell>
         </row>
         <row r="4">
-          <cell r="Q4">
-            <v>0.232558139534884</v>
+          <cell r="F4">
+            <v>44523</v>
+          </cell>
+          <cell r="G4">
+            <v>26.2</v>
+          </cell>
+          <cell r="H4">
+            <v>200</v>
+          </cell>
+          <cell r="I4">
+            <v>5</v>
+          </cell>
+          <cell r="J4">
+            <v>0</v>
+          </cell>
+          <cell r="K4">
+            <v>5245</v>
+          </cell>
+          <cell r="L4">
+            <v>26.5</v>
+          </cell>
+          <cell r="M4">
+            <v>25.21</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="S4">
+          <cell r="R4">
+            <v>0.232558139534884</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="T4">
             <v>0</v>
           </cell>
-          <cell r="T4">
+          <cell r="U4">
             <v>44526</v>
           </cell>
-          <cell r="U4">
+          <cell r="V4">
             <v>24.89</v>
           </cell>
-          <cell r="V4">
+          <cell r="W4">
             <v>100</v>
           </cell>
-          <cell r="W4">
+          <cell r="X4">
             <v>5</v>
           </cell>
-          <cell r="X4">
+          <cell r="Y4">
             <v>2.489</v>
           </cell>
-          <cell r="Y4">
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4" t="e">
+          <cell r="AF4" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。
-3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1285,42 +1282,42 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="S5">
+          <cell r="T5">
             <v>0</v>
           </cell>
-          <cell r="T5">
+          <cell r="U5">
             <v>44531</v>
           </cell>
-          <cell r="U5">
+          <cell r="V5">
             <v>27.7</v>
           </cell>
-          <cell r="V5">
+          <cell r="W5">
             <v>100</v>
           </cell>
-          <cell r="W5">
+          <cell r="X5">
             <v>5</v>
           </cell>
-          <cell r="X5">
+          <cell r="Y5">
             <v>2.77</v>
           </cell>
-          <cell r="Y5">
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5" t="e">
+          <cell r="AF5" t="e">
             <v>#N/A</v>
           </cell>
         </row>
@@ -1337,39 +1334,42 @@
           <cell r="D6" t="str">
             <v>同仁堂</v>
           </cell>
-          <cell r="E6">
+          <cell r="E6" t="str">
+            <v>中药</v>
+          </cell>
+          <cell r="F6">
             <v>44523</v>
           </cell>
-          <cell r="F6">
+          <cell r="G6">
             <v>33.73</v>
           </cell>
-          <cell r="G6">
+          <cell r="H6">
             <v>100</v>
           </cell>
-          <cell r="H6">
+          <cell r="I6">
             <v>5</v>
           </cell>
-          <cell r="I6">
+          <cell r="J6">
             <v>0.06746</v>
           </cell>
-          <cell r="J6">
+          <cell r="K6">
             <v>3378.06746</v>
           </cell>
-          <cell r="K6">
+          <cell r="L6">
             <v>35.36</v>
           </cell>
-          <cell r="L6">
+          <cell r="M6">
             <v>33.1</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="Q6">
+          <cell r="R6">
             <v>0.721238938053099</v>
           </cell>
-          <cell r="R6">
+          <cell r="S6">
             <v>34.7</v>
           </cell>
-          <cell r="S6">
+          <cell r="T6">
             <v>-86.9325400000006</v>
           </cell>
         </row>
@@ -1386,39 +1386,41 @@
           <cell r="D7" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E7">
-            <v>44522</v>
-          </cell>
-          <cell r="F7">
-            <v>32.7</v>
-          </cell>
-          <cell r="G7">
-            <v>100</v>
-          </cell>
-          <cell r="H7">
-            <v>5</v>
-          </cell>
-          <cell r="I7">
-            <v>0.0654</v>
-          </cell>
-          <cell r="J7">
-            <v>3275.0654</v>
-          </cell>
-          <cell r="K7">
-            <v>33.9</v>
-          </cell>
-          <cell r="L7">
-            <v>32.49</v>
-          </cell>
         </row>
         <row r="7">
-          <cell r="Q7">
+          <cell r="F7">
+            <v>44522</v>
+          </cell>
+          <cell r="G7">
+            <v>32.7</v>
+          </cell>
+          <cell r="H7">
+            <v>100</v>
+          </cell>
+          <cell r="I7">
+            <v>5</v>
+          </cell>
+          <cell r="J7">
+            <v>0.0654</v>
+          </cell>
+          <cell r="K7">
+            <v>3275.0654</v>
+          </cell>
+          <cell r="L7">
+            <v>33.9</v>
+          </cell>
+          <cell r="M7">
+            <v>32.49</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
             <v>0.851063829787233</v>
           </cell>
-          <cell r="R7">
+          <cell r="S7">
             <v>30.89</v>
           </cell>
-          <cell r="S7">
+          <cell r="T7">
             <v>0</v>
           </cell>
         </row>
@@ -1435,45 +1437,43 @@
           <cell r="D8" t="str">
             <v>明德生物</v>
           </cell>
-          <cell r="E8">
+          <cell r="E8" t="str">
+            <v>医疗器械</v>
+          </cell>
+          <cell r="F8">
             <v>44526</v>
           </cell>
-          <cell r="F8">
+          <cell r="G8">
             <v>72.07</v>
           </cell>
-          <cell r="G8">
+          <cell r="H8">
             <v>100</v>
           </cell>
-          <cell r="H8">
+          <cell r="I8">
             <v>5</v>
           </cell>
-          <cell r="I8">
+          <cell r="J8">
             <v>0</v>
           </cell>
-          <cell r="J8">
+          <cell r="K8">
             <v>7212</v>
           </cell>
-          <cell r="K8">
+          <cell r="L8">
             <v>74.5</v>
           </cell>
-          <cell r="L8">
+          <cell r="M8">
             <v>70.4</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="Q8">
+          <cell r="R8">
             <v>0.592682926829271</v>
           </cell>
-          <cell r="R8">
+          <cell r="S8">
             <v>67.53</v>
           </cell>
-          <cell r="S8">
+          <cell r="T8">
             <v>463.999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
           </cell>
         </row>
         <row r="9">
@@ -1489,77 +1489,76 @@
           <cell r="D9" t="str">
             <v>百龙创园</v>
           </cell>
-          <cell r="E9">
-            <v>44524</v>
-          </cell>
-          <cell r="F9">
-            <v>30.54</v>
-          </cell>
-          <cell r="G9">
-            <v>100</v>
-          </cell>
-          <cell r="H9">
-            <v>5</v>
-          </cell>
-          <cell r="I9">
-            <v>0.06108</v>
-          </cell>
-          <cell r="J9">
-            <v>3059.06108</v>
-          </cell>
-          <cell r="K9">
-            <v>30.72</v>
-          </cell>
-          <cell r="L9">
-            <v>29.33</v>
-          </cell>
         </row>
         <row r="9">
-          <cell r="Q9">
-            <v>0.129496402877698</v>
+          <cell r="F9">
+            <v>44524</v>
+          </cell>
+          <cell r="G9">
+            <v>30.54</v>
+          </cell>
+          <cell r="H9">
+            <v>100</v>
+          </cell>
+          <cell r="I9">
+            <v>5</v>
+          </cell>
+          <cell r="J9">
+            <v>0.06108</v>
+          </cell>
+          <cell r="K9">
+            <v>3059.06108</v>
+          </cell>
+          <cell r="L9">
+            <v>30.72</v>
+          </cell>
+          <cell r="M9">
+            <v>29.33</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="S9">
-            <v>0</v>
-          </cell>
-          <cell r="T9">
-            <v>44525</v>
-          </cell>
-          <cell r="U9">
-            <v>30.15</v>
-          </cell>
-          <cell r="V9">
-            <v>100</v>
-          </cell>
-          <cell r="W9">
-            <v>5</v>
-          </cell>
-          <cell r="X9">
-            <v>3.015</v>
-          </cell>
-          <cell r="Y9">
-            <v>3006.985</v>
-          </cell>
-          <cell r="Z9">
-            <v>30.69</v>
-          </cell>
-          <cell r="AA9">
-            <v>30.01</v>
-          </cell>
-          <cell r="AB9">
-            <v>0.205882352941172</v>
-          </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
+          <cell r="R9">
+            <v>0.129496402877698</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="AE9" t="e">
+          <cell r="T9">
+            <v>0</v>
+          </cell>
+          <cell r="U9">
+            <v>44525</v>
+          </cell>
+          <cell r="V9">
+            <v>30.15</v>
+          </cell>
+          <cell r="W9">
+            <v>100</v>
+          </cell>
+          <cell r="X9">
+            <v>5</v>
+          </cell>
+          <cell r="Y9">
+            <v>3.015</v>
+          </cell>
+          <cell r="Z9">
+            <v>3006.985</v>
+          </cell>
+          <cell r="AA9">
+            <v>30.69</v>
+          </cell>
+          <cell r="AB9">
+            <v>30.01</v>
+          </cell>
+          <cell r="AC9">
+            <v>0.205882352941172</v>
+          </cell>
+          <cell r="AD9">
+            <v>-52.0760799999998</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="AF9" t="e">
             <v>#DIV/0!</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1575,77 +1574,76 @@
           <cell r="D10" t="str">
             <v>万盛股份</v>
           </cell>
-          <cell r="E10">
-            <v>44530</v>
-          </cell>
-          <cell r="F10">
-            <v>29.81</v>
-          </cell>
-          <cell r="G10">
-            <v>100</v>
-          </cell>
-          <cell r="H10">
-            <v>5</v>
-          </cell>
-          <cell r="I10">
-            <v>0.05962</v>
-          </cell>
-          <cell r="J10">
-            <v>2986.05962</v>
-          </cell>
-          <cell r="K10">
-            <v>30.32</v>
-          </cell>
-          <cell r="L10">
-            <v>28.81</v>
-          </cell>
         </row>
         <row r="10">
-          <cell r="Q10">
-            <v>0.337748344370862</v>
+          <cell r="F10">
+            <v>44530</v>
+          </cell>
+          <cell r="G10">
+            <v>29.81</v>
+          </cell>
+          <cell r="H10">
+            <v>100</v>
+          </cell>
+          <cell r="I10">
+            <v>5</v>
+          </cell>
+          <cell r="J10">
+            <v>0.05962</v>
+          </cell>
+          <cell r="K10">
+            <v>2986.05962</v>
+          </cell>
+          <cell r="L10">
+            <v>30.32</v>
+          </cell>
+          <cell r="M10">
+            <v>28.81</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="S10">
-            <v>0</v>
-          </cell>
-          <cell r="T10">
-            <v>44533</v>
-          </cell>
-          <cell r="U10">
-            <v>27.83</v>
-          </cell>
-          <cell r="V10">
-            <v>100</v>
-          </cell>
-          <cell r="W10">
-            <v>5</v>
-          </cell>
-          <cell r="X10">
-            <v>2.783</v>
-          </cell>
-          <cell r="Y10">
-            <v>2775.217</v>
-          </cell>
-          <cell r="Z10">
-            <v>28.4</v>
-          </cell>
-          <cell r="AA10">
-            <v>27.44</v>
-          </cell>
-          <cell r="AB10">
-            <v>0.406249999999998</v>
-          </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
+          <cell r="R10">
+            <v>0.337748344370862</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="AE10">
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>44533</v>
+          </cell>
+          <cell r="V10">
+            <v>27.83</v>
+          </cell>
+          <cell r="W10">
+            <v>100</v>
+          </cell>
+          <cell r="X10">
+            <v>5</v>
+          </cell>
+          <cell r="Y10">
+            <v>2.783</v>
+          </cell>
+          <cell r="Z10">
+            <v>2775.217</v>
+          </cell>
+          <cell r="AA10">
+            <v>28.4</v>
+          </cell>
+          <cell r="AB10">
+            <v>27.44</v>
+          </cell>
+          <cell r="AC10">
+            <v>0.406249999999998</v>
+          </cell>
+          <cell r="AD10">
+            <v>-210.84262</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="AF10">
             <v>-5.46810273405137</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1661,81 +1659,77 @@
           <cell r="D11" t="str">
             <v>双星新材</v>
           </cell>
-          <cell r="E11">
-            <v>44536</v>
-          </cell>
-          <cell r="F11">
-            <v>28.37</v>
-          </cell>
-          <cell r="G11">
-            <v>100</v>
-          </cell>
-          <cell r="H11">
-            <v>5</v>
-          </cell>
-          <cell r="I11">
-            <v>0</v>
-          </cell>
-          <cell r="J11">
-            <v>2842</v>
-          </cell>
-          <cell r="K11">
-            <v>29.7</v>
-          </cell>
-          <cell r="L11">
-            <v>27.69</v>
-          </cell>
         </row>
         <row r="11">
-          <cell r="Q11">
-            <v>0.661691542288557</v>
-          </cell>
-          <cell r="R11">
-            <v>26.31</v>
-          </cell>
-          <cell r="S11">
+          <cell r="F11">
+            <v>44536</v>
+          </cell>
+          <cell r="G11">
+            <v>28.37</v>
+          </cell>
+          <cell r="H11">
+            <v>100</v>
+          </cell>
+          <cell r="I11">
+            <v>5</v>
+          </cell>
+          <cell r="J11">
             <v>0</v>
           </cell>
-          <cell r="T11">
-            <v>44537</v>
-          </cell>
-          <cell r="U11">
-            <v>26.7</v>
-          </cell>
-          <cell r="V11">
-            <v>100</v>
-          </cell>
-          <cell r="W11">
-            <v>5</v>
-          </cell>
-          <cell r="X11">
-            <v>2.67</v>
-          </cell>
-          <cell r="Y11">
-            <v>2662.33</v>
-          </cell>
-          <cell r="Z11">
-            <v>28.18</v>
-          </cell>
-          <cell r="AA11">
-            <v>25.99</v>
-          </cell>
-          <cell r="AB11">
-            <v>0.324200913242009</v>
-          </cell>
-          <cell r="AC11">
-            <v>-179.67</v>
+          <cell r="K11">
+            <v>2842</v>
+          </cell>
+          <cell r="L11">
+            <v>29.7</v>
+          </cell>
+          <cell r="M11">
+            <v>27.69</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="AE11">
+          <cell r="R11">
+            <v>0.661691542288557</v>
+          </cell>
+          <cell r="S11">
+            <v>26.31</v>
+          </cell>
+          <cell r="T11">
+            <v>0</v>
+          </cell>
+          <cell r="U11">
+            <v>44537</v>
+          </cell>
+          <cell r="V11">
+            <v>26.7</v>
+          </cell>
+          <cell r="W11">
+            <v>100</v>
+          </cell>
+          <cell r="X11">
+            <v>5</v>
+          </cell>
+          <cell r="Y11">
+            <v>2.67</v>
+          </cell>
+          <cell r="Z11">
+            <v>2662.33</v>
+          </cell>
+          <cell r="AA11">
+            <v>28.18</v>
+          </cell>
+          <cell r="AB11">
+            <v>25.99</v>
+          </cell>
+          <cell r="AC11">
+            <v>0.324200913242009</v>
+          </cell>
+          <cell r="AD11">
+            <v>-179.67</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="AF11">
             <v>-5.11798958014098</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>1.宁可错过，不要根据临时计划入场。
-2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
-3.作出出场决定是使用止损线倒逼出场。
-</v>
           </cell>
         </row>
         <row r="12">
@@ -1751,49 +1745,52 @@
           <cell r="D12" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E12">
+          <cell r="E12" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F12">
             <v>44540</v>
           </cell>
-          <cell r="F12">
+          <cell r="G12">
             <v>37.73</v>
           </cell>
-          <cell r="G12">
+          <cell r="H12">
             <v>200</v>
           </cell>
-          <cell r="H12">
+          <cell r="I12">
             <v>5</v>
           </cell>
-          <cell r="I12">
+          <cell r="J12">
             <v>0.15092</v>
           </cell>
-          <cell r="J12">
+          <cell r="K12">
             <v>7551.15092</v>
           </cell>
-          <cell r="K12">
+          <cell r="L12">
             <v>38.32</v>
           </cell>
-          <cell r="L12">
+          <cell r="M12">
             <v>37.15</v>
           </cell>
-          <cell r="M12">
+          <cell r="N12">
             <v>40.11</v>
           </cell>
-          <cell r="N12">
+          <cell r="O12">
             <v>30.85</v>
           </cell>
-          <cell r="O12">
+          <cell r="P12">
             <v>9.26</v>
           </cell>
-          <cell r="P12">
+          <cell r="Q12">
             <v>33.58</v>
           </cell>
-          <cell r="Q12">
+          <cell r="R12">
             <v>0.504273504273506</v>
           </cell>
-          <cell r="R12">
+          <cell r="S12">
             <v>33.38</v>
           </cell>
-          <cell r="S12">
+          <cell r="T12">
             <v>880.150919999999</v>
           </cell>
         </row>
@@ -1810,49 +1807,52 @@
           <cell r="D13" t="str">
             <v>新化股份</v>
           </cell>
-          <cell r="E13">
+          <cell r="E13" t="str">
+            <v>化学制品</v>
+          </cell>
+          <cell r="F13">
             <v>44540</v>
           </cell>
-          <cell r="F13">
+          <cell r="G13">
             <v>37.99</v>
           </cell>
-          <cell r="G13">
+          <cell r="H13">
             <v>200</v>
           </cell>
-          <cell r="H13">
+          <cell r="I13">
             <v>5</v>
           </cell>
-          <cell r="I13">
+          <cell r="J13">
             <v>0.15196</v>
           </cell>
-          <cell r="J13">
+          <cell r="K13">
             <v>7603.15196</v>
           </cell>
-          <cell r="K13">
+          <cell r="L13">
             <v>38.32</v>
           </cell>
-          <cell r="L13">
+          <cell r="M13">
             <v>37.15</v>
           </cell>
-          <cell r="M13">
+          <cell r="N13">
             <v>40.11</v>
           </cell>
-          <cell r="N13">
+          <cell r="O13">
             <v>30.85</v>
           </cell>
-          <cell r="O13">
+          <cell r="P13">
             <v>9.26</v>
           </cell>
-          <cell r="P13">
+          <cell r="Q13">
             <v>33.58</v>
           </cell>
-          <cell r="Q13">
+          <cell r="R13">
             <v>0.28205128205128</v>
           </cell>
-          <cell r="R13">
+          <cell r="S13">
             <v>33.38</v>
           </cell>
-          <cell r="S13">
+          <cell r="T13">
             <v>932.15196</v>
           </cell>
         </row>
@@ -1869,49 +1869,52 @@
           <cell r="D14" t="str">
             <v>振华科技</v>
           </cell>
-          <cell r="E14">
+          <cell r="E14" t="str">
+            <v>国防军工</v>
+          </cell>
+          <cell r="F14">
             <v>44540</v>
           </cell>
-          <cell r="F14">
+          <cell r="G14">
             <v>115.97</v>
           </cell>
-          <cell r="G14">
+          <cell r="H14">
             <v>100</v>
           </cell>
-          <cell r="H14">
+          <cell r="I14">
             <v>5</v>
           </cell>
-          <cell r="I14">
+          <cell r="J14">
             <v>0</v>
           </cell>
-          <cell r="J14">
+          <cell r="K14">
             <v>11602</v>
           </cell>
-          <cell r="K14">
+          <cell r="L14">
             <v>118</v>
           </cell>
-          <cell r="L14">
+          <cell r="M14">
             <v>113.58</v>
           </cell>
-          <cell r="M14">
+          <cell r="N14">
             <v>128.61</v>
           </cell>
-          <cell r="N14">
+          <cell r="O14">
             <v>102.72</v>
           </cell>
-          <cell r="O14">
+          <cell r="P14">
             <v>25.89</v>
           </cell>
-          <cell r="P14">
+          <cell r="Q14">
             <v>50.45</v>
           </cell>
-          <cell r="Q14">
+          <cell r="R14">
             <v>0.459276018099548</v>
           </cell>
-          <cell r="R14">
+          <cell r="S14">
             <v>110.4</v>
           </cell>
-          <cell r="S14">
+          <cell r="T14">
             <v>566.999999999999</v>
           </cell>
         </row>
@@ -1928,49 +1931,52 @@
           <cell r="D15" t="str">
             <v>明泰铝业</v>
           </cell>
-          <cell r="E15">
+          <cell r="E15" t="str">
+            <v>工业金属</v>
+          </cell>
+          <cell r="F15">
             <v>44540</v>
           </cell>
-          <cell r="F15">
+          <cell r="G15">
             <v>39.15</v>
           </cell>
-          <cell r="G15">
+          <cell r="H15">
             <v>100</v>
           </cell>
-          <cell r="H15">
+          <cell r="I15">
             <v>5</v>
           </cell>
-          <cell r="I15">
+          <cell r="J15">
             <v>0.0783</v>
           </cell>
-          <cell r="J15">
+          <cell r="K15">
             <v>3920.0783</v>
           </cell>
-          <cell r="K15">
+          <cell r="L15">
             <v>39.16</v>
           </cell>
-          <cell r="L15">
+          <cell r="M15">
             <v>37.55</v>
           </cell>
-          <cell r="M15">
+          <cell r="N15">
             <v>41.07</v>
           </cell>
-          <cell r="N15">
+          <cell r="O15">
             <v>32.21</v>
           </cell>
-          <cell r="O15">
+          <cell r="P15">
             <v>8.86</v>
           </cell>
-          <cell r="P15">
+          <cell r="Q15">
             <v>14.76</v>
           </cell>
-          <cell r="Q15">
+          <cell r="R15">
             <v>0.00621118012422237</v>
           </cell>
-          <cell r="R15">
+          <cell r="S15">
             <v>35.91</v>
           </cell>
-          <cell r="S15">
+          <cell r="T15">
             <v>334.0783</v>
           </cell>
         </row>
@@ -1987,49 +1993,52 @@
           <cell r="D16" t="str">
             <v>石英股份</v>
           </cell>
-          <cell r="E16">
+          <cell r="E16" t="str">
+            <v> 非金属材料</v>
+          </cell>
+          <cell r="F16">
             <v>44540</v>
           </cell>
-          <cell r="F16">
+          <cell r="G16">
             <v>64.3</v>
           </cell>
-          <cell r="G16">
+          <cell r="H16">
             <v>100</v>
           </cell>
-          <cell r="H16">
+          <cell r="I16">
             <v>5</v>
           </cell>
-          <cell r="I16">
+          <cell r="J16">
             <v>0.1286</v>
           </cell>
-          <cell r="J16">
+          <cell r="K16">
             <v>6435.1286</v>
           </cell>
-          <cell r="K16">
+          <cell r="L16">
             <v>64.47</v>
           </cell>
-          <cell r="L16">
+          <cell r="M16">
             <v>59.34</v>
           </cell>
-          <cell r="M16">
+          <cell r="N16">
             <v>69.25</v>
           </cell>
-          <cell r="N16">
+          <cell r="O16">
             <v>52.2</v>
           </cell>
-          <cell r="O16">
+          <cell r="P16">
             <v>17.05</v>
           </cell>
-          <cell r="P16">
+          <cell r="Q16">
             <v>100.55</v>
           </cell>
-          <cell r="Q16">
+          <cell r="R16">
             <v>0.0331384015594546</v>
           </cell>
-          <cell r="R16">
+          <cell r="S16">
             <v>58.51</v>
           </cell>
-          <cell r="S16">
+          <cell r="T16">
             <v>589.1286</v>
           </cell>
         </row>
@@ -2334,11 +2343,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2660,7 +2669,7 @@
         <v>0.0251</v>
       </c>
       <c r="K6" s="16">
-        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,6,FALSE)</f>
+        <f>(B6-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE))/VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10004,7,FALSE)</f>
         <v>-0.0071519795657727</v>
       </c>
       <c r="L6" s="15">
@@ -2712,7 +2721,7 @@
         <v>35.91</v>
       </c>
       <c r="AG6" s="37">
-        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10005,6,FALSE)</f>
+        <f>AF6-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10005,7,FALSE)</f>
         <v>-3.24</v>
       </c>
     </row>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
@@ -2476,11 +2476,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG7" sqref="AG7"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2861,7 +2861,7 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="8">
-        <v>44541</v>
+        <v>44543</v>
       </c>
       <c r="B7" s="9">
         <v>38.69</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="8">
-        <v>44542</v>
+        <v>44544</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="8">
-        <v>44543</v>
+        <v>44545</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="8">
-        <v>44544</v>
+        <v>44546</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="8">
-        <v>44545</v>
+        <v>44547</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -3094,9 +3094,7 @@
       <c r="AF11" s="39"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="8">
-        <v>44546</v>
-      </c>
+      <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3130,9 +3128,7 @@
       <c r="AF12" s="39"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="8">
-        <v>44547</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3166,9 +3162,7 @@
       <c r="AF13" s="39"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="8">
-        <v>44548</v>
-      </c>
+      <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3202,9 +3196,7 @@
       <c r="AF14" s="39"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="8">
-        <v>44549</v>
-      </c>
+      <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3238,9 +3230,7 @@
       <c r="AF15" s="39"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="8">
-        <v>44550</v>
-      </c>
+      <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3274,9 +3264,7 @@
       <c r="AF16" s="39"/>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="8">
-        <v>44551</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3310,9 +3298,7 @@
       <c r="AF17" s="39"/>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="8">
-        <v>44552</v>
-      </c>
+      <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -3346,9 +3332,7 @@
       <c r="AF18" s="39"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="8">
-        <v>44553</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3382,9 +3366,7 @@
       <c r="AF19" s="39"/>
     </row>
     <row r="20" spans="1:32">
-      <c r="A20" s="8">
-        <v>44554</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -3418,9 +3400,7 @@
       <c r="AF20" s="39"/>
     </row>
     <row r="21" spans="1:32">
-      <c r="A21" s="8">
-        <v>44555</v>
-      </c>
+      <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -3454,9 +3434,7 @@
       <c r="AF21" s="39"/>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="8">
-        <v>44556</v>
-      </c>
+      <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -3490,9 +3468,7 @@
       <c r="AF22" s="39"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="8">
-        <v>44557</v>
-      </c>
+      <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -3526,9 +3502,7 @@
       <c r="AF23" s="39"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="8">
-        <v>44558</v>
-      </c>
+      <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -3562,9 +3536,7 @@
       <c r="AF24" s="39"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="8">
-        <v>44559</v>
-      </c>
+      <c r="A25" s="8"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -3598,9 +3570,7 @@
       <c r="AF25" s="39"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="8">
-        <v>44560</v>
-      </c>
+      <c r="A26" s="8"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -3634,9 +3604,7 @@
       <c r="AF26" s="39"/>
     </row>
     <row r="27" spans="1:32">
-      <c r="A27" s="8">
-        <v>44561</v>
-      </c>
+      <c r="A27" s="8"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3670,9 +3638,7 @@
       <c r="AF27" s="39"/>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="8">
-        <v>44562</v>
-      </c>
+      <c r="A28" s="8"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3706,9 +3672,7 @@
       <c r="AF28" s="39"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="8">
-        <v>44563</v>
-      </c>
+      <c r="A29" s="8"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3742,9 +3706,7 @@
       <c r="AF29" s="39"/>
     </row>
     <row r="30" spans="1:32">
-      <c r="A30" s="8">
-        <v>44564</v>
-      </c>
+      <c r="A30" s="8"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3778,9 +3740,7 @@
       <c r="AF30" s="39"/>
     </row>
     <row r="31" spans="1:32">
-      <c r="A31" s="8">
-        <v>44565</v>
-      </c>
+      <c r="A31" s="8"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -3814,9 +3774,7 @@
       <c r="AF31" s="39"/>
     </row>
     <row r="32" spans="1:32">
-      <c r="A32" s="8">
-        <v>44566</v>
-      </c>
+      <c r="A32" s="8"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3850,9 +3808,7 @@
       <c r="AF32" s="39"/>
     </row>
     <row r="33" spans="1:32">
-      <c r="A33" s="8">
-        <v>44567</v>
-      </c>
+      <c r="A33" s="8"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3886,9 +3842,7 @@
       <c r="AF33" s="39"/>
     </row>
     <row r="34" spans="1:32">
-      <c r="A34" s="8">
-        <v>44568</v>
-      </c>
+      <c r="A34" s="8"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3922,9 +3876,7 @@
       <c r="AF34" s="39"/>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="8">
-        <v>44569</v>
-      </c>
+      <c r="A35" s="8"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -3958,9 +3910,7 @@
       <c r="AF35" s="39"/>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="8">
-        <v>44570</v>
-      </c>
+      <c r="A36" s="8"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -3994,9 +3944,7 @@
       <c r="AF36" s="39"/>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="8">
-        <v>44571</v>
-      </c>
+      <c r="A37" s="8"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -4030,9 +3978,7 @@
       <c r="AF37" s="39"/>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="8">
-        <v>44572</v>
-      </c>
+      <c r="A38" s="8"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -4066,9 +4012,7 @@
       <c r="AF38" s="39"/>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="8">
-        <v>44573</v>
-      </c>
+      <c r="A39" s="8"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -4102,9 +4046,7 @@
       <c r="AF39" s="39"/>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="8">
-        <v>44574</v>
-      </c>
+      <c r="A40" s="8"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -4138,9 +4080,7 @@
       <c r="AF40" s="39"/>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="8">
-        <v>44575</v>
-      </c>
+      <c r="A41" s="8"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -4174,9 +4114,7 @@
       <c r="AF41" s="39"/>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="8">
-        <v>44576</v>
-      </c>
+      <c r="A42" s="8"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -4210,9 +4148,7 @@
       <c r="AF42" s="39"/>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="8">
-        <v>44577</v>
-      </c>
+      <c r="A43" s="8"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -4246,9 +4182,7 @@
       <c r="AF43" s="39"/>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="8">
-        <v>44578</v>
-      </c>
+      <c r="A44" s="8"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -4282,9 +4216,7 @@
       <c r="AF44" s="39"/>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="8">
-        <v>44579</v>
-      </c>
+      <c r="A45" s="8"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -4318,9 +4250,7 @@
       <c r="AF45" s="39"/>
     </row>
     <row r="46" spans="1:32">
-      <c r="A46" s="8">
-        <v>44580</v>
-      </c>
+      <c r="A46" s="8"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -4354,9 +4284,7 @@
       <c r="AF46" s="39"/>
     </row>
     <row r="47" spans="1:32">
-      <c r="A47" s="8">
-        <v>44581</v>
-      </c>
+      <c r="A47" s="8"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -4390,9 +4318,7 @@
       <c r="AF47" s="39"/>
     </row>
     <row r="48" spans="1:32">
-      <c r="A48" s="8">
-        <v>44582</v>
-      </c>
+      <c r="A48" s="8"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -4426,9 +4352,7 @@
       <c r="AF48" s="39"/>
     </row>
     <row r="49" spans="1:32">
-      <c r="A49" s="8">
-        <v>44583</v>
-      </c>
+      <c r="A49" s="8"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -4462,9 +4386,7 @@
       <c r="AF49" s="39"/>
     </row>
     <row r="50" spans="1:32">
-      <c r="A50" s="8">
-        <v>44584</v>
-      </c>
+      <c r="A50" s="8"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -4498,9 +4420,7 @@
       <c r="AF50" s="39"/>
     </row>
     <row r="51" spans="1:32">
-      <c r="A51" s="8">
-        <v>44585</v>
-      </c>
+      <c r="A51" s="8"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -4534,9 +4454,7 @@
       <c r="AF51" s="39"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="8">
-        <v>44586</v>
-      </c>
+      <c r="A52" s="8"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -4570,9 +4488,7 @@
       <c r="AF52" s="39"/>
     </row>
     <row r="53" spans="1:32">
-      <c r="A53" s="8">
-        <v>44587</v>
-      </c>
+      <c r="A53" s="8"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -4606,9 +4522,7 @@
       <c r="AF53" s="39"/>
     </row>
     <row r="54" spans="1:32">
-      <c r="A54" s="8">
-        <v>44588</v>
-      </c>
+      <c r="A54" s="8"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -4642,9 +4556,7 @@
       <c r="AF54" s="39"/>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="8">
-        <v>44589</v>
-      </c>
+      <c r="A55" s="8"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -4678,9 +4590,7 @@
       <c r="AF55" s="39"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="8">
-        <v>44590</v>
-      </c>
+      <c r="A56" s="8"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -4714,9 +4624,7 @@
       <c r="AF56" s="39"/>
     </row>
     <row r="57" spans="1:32">
-      <c r="A57" s="8">
-        <v>44591</v>
-      </c>
+      <c r="A57" s="8"/>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4750,9 +4658,7 @@
       <c r="AF57" s="39"/>
     </row>
     <row r="58" spans="1:32">
-      <c r="A58" s="8">
-        <v>44592</v>
-      </c>
+      <c r="A58" s="8"/>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -4786,9 +4692,7 @@
       <c r="AF58" s="39"/>
     </row>
     <row r="59" spans="1:32">
-      <c r="A59" s="8">
-        <v>44593</v>
-      </c>
+      <c r="A59" s="8"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -4822,9 +4726,7 @@
       <c r="AF59" s="39"/>
     </row>
     <row r="60" spans="1:32">
-      <c r="A60" s="8">
-        <v>44594</v>
-      </c>
+      <c r="A60" s="8"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -4858,9 +4760,7 @@
       <c r="AF60" s="39"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="8">
-        <v>44595</v>
-      </c>
+      <c r="A61" s="8"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -4894,9 +4794,7 @@
       <c r="AF61" s="39"/>
     </row>
     <row r="62" spans="1:32">
-      <c r="A62" s="8">
-        <v>44596</v>
-      </c>
+      <c r="A62" s="8"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -4930,9 +4828,7 @@
       <c r="AF62" s="39"/>
     </row>
     <row r="63" spans="1:32">
-      <c r="A63" s="8">
-        <v>44597</v>
-      </c>
+      <c r="A63" s="8"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4966,9 +4862,7 @@
       <c r="AF63" s="39"/>
     </row>
     <row r="64" spans="1:32">
-      <c r="A64" s="8">
-        <v>44598</v>
-      </c>
+      <c r="A64" s="8"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -5002,9 +4896,7 @@
       <c r="AF64" s="39"/>
     </row>
     <row r="65" spans="1:32">
-      <c r="A65" s="8">
-        <v>44599</v>
-      </c>
+      <c r="A65" s="8"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -5038,9 +4930,7 @@
       <c r="AF65" s="39"/>
     </row>
     <row r="66" spans="1:32">
-      <c r="A66" s="8">
-        <v>44600</v>
-      </c>
+      <c r="A66" s="8"/>
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -5074,9 +4964,7 @@
       <c r="AF66" s="39"/>
     </row>
     <row r="67" spans="1:32">
-      <c r="A67" s="8">
-        <v>44601</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -5110,9 +4998,7 @@
       <c r="AF67" s="39"/>
     </row>
     <row r="68" spans="1:32">
-      <c r="A68" s="8">
-        <v>44602</v>
-      </c>
+      <c r="A68" s="8"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -5146,9 +5032,7 @@
       <c r="AF68" s="39"/>
     </row>
     <row r="69" spans="1:32">
-      <c r="A69" s="8">
-        <v>44603</v>
-      </c>
+      <c r="A69" s="8"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -5182,9 +5066,7 @@
       <c r="AF69" s="39"/>
     </row>
     <row r="70" spans="1:32">
-      <c r="A70" s="8">
-        <v>44604</v>
-      </c>
+      <c r="A70" s="8"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -5218,9 +5100,7 @@
       <c r="AF70" s="39"/>
     </row>
     <row r="71" spans="1:32">
-      <c r="A71" s="8">
-        <v>44605</v>
-      </c>
+      <c r="A71" s="8"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -5254,9 +5134,7 @@
       <c r="AF71" s="39"/>
     </row>
     <row r="72" spans="1:32">
-      <c r="A72" s="8">
-        <v>44606</v>
-      </c>
+      <c r="A72" s="8"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -5290,9 +5168,7 @@
       <c r="AF72" s="39"/>
     </row>
     <row r="73" spans="1:32">
-      <c r="A73" s="8">
-        <v>44607</v>
-      </c>
+      <c r="A73" s="8"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -5326,9 +5202,7 @@
       <c r="AF73" s="39"/>
     </row>
     <row r="74" spans="1:32">
-      <c r="A74" s="8">
-        <v>44608</v>
-      </c>
+      <c r="A74" s="8"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -5362,9 +5236,7 @@
       <c r="AF74" s="39"/>
     </row>
     <row r="75" spans="1:32">
-      <c r="A75" s="8">
-        <v>44609</v>
-      </c>
+      <c r="A75" s="8"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -5398,9 +5270,7 @@
       <c r="AF75" s="39"/>
     </row>
     <row r="76" spans="1:32">
-      <c r="A76" s="8">
-        <v>44610</v>
-      </c>
+      <c r="A76" s="8"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
@@ -5434,9 +5304,7 @@
       <c r="AF76" s="39"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="8">
-        <v>44611</v>
-      </c>
+      <c r="A77" s="8"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -5470,9 +5338,7 @@
       <c r="AF77" s="39"/>
     </row>
     <row r="78" spans="1:32">
-      <c r="A78" s="8">
-        <v>44612</v>
-      </c>
+      <c r="A78" s="8"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -5506,9 +5372,7 @@
       <c r="AF78" s="39"/>
     </row>
     <row r="79" spans="1:32">
-      <c r="A79" s="8">
-        <v>44613</v>
-      </c>
+      <c r="A79" s="8"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -5542,9 +5406,7 @@
       <c r="AF79" s="39"/>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="8">
-        <v>44614</v>
-      </c>
+      <c r="A80" s="8"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -5578,9 +5440,7 @@
       <c r="AF80" s="39"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="8">
-        <v>44615</v>
-      </c>
+      <c r="A81" s="8"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
@@ -5614,9 +5474,7 @@
       <c r="AF81" s="39"/>
     </row>
     <row r="82" spans="1:32">
-      <c r="A82" s="8">
-        <v>44616</v>
-      </c>
+      <c r="A82" s="8"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -5650,9 +5508,7 @@
       <c r="AF82" s="39"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="8">
-        <v>44617</v>
-      </c>
+      <c r="A83" s="8"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
@@ -5686,9 +5542,7 @@
       <c r="AF83" s="39"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="8">
-        <v>44618</v>
-      </c>
+      <c r="A84" s="8"/>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -5722,9 +5576,7 @@
       <c r="AF84" s="39"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="8">
-        <v>44619</v>
-      </c>
+      <c r="A85" s="8"/>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -5758,9 +5610,7 @@
       <c r="AF85" s="39"/>
     </row>
     <row r="86" spans="1:32">
-      <c r="A86" s="8">
-        <v>44620</v>
-      </c>
+      <c r="A86" s="8"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -5794,9 +5644,7 @@
       <c r="AF86" s="39"/>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="8">
-        <v>44621</v>
-      </c>
+      <c r="A87" s="8"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -5830,9 +5678,7 @@
       <c r="AF87" s="39"/>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="8">
-        <v>44622</v>
-      </c>
+      <c r="A88" s="8"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -5866,9 +5712,7 @@
       <c r="AF88" s="39"/>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="8">
-        <v>44623</v>
-      </c>
+      <c r="A89" s="8"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -5902,9 +5746,7 @@
       <c r="AF89" s="39"/>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="8">
-        <v>44624</v>
-      </c>
+      <c r="A90" s="8"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -5938,9 +5780,7 @@
       <c r="AF90" s="39"/>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="8">
-        <v>44625</v>
-      </c>
+      <c r="A91" s="8"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
@@ -5974,9 +5814,7 @@
       <c r="AF91" s="39"/>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="8">
-        <v>44626</v>
-      </c>
+      <c r="A92" s="8"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
@@ -6010,9 +5848,7 @@
       <c r="AF92" s="39"/>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="8">
-        <v>44627</v>
-      </c>
+      <c r="A93" s="8"/>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -6046,9 +5882,7 @@
       <c r="AF93" s="39"/>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="8">
-        <v>44628</v>
-      </c>
+      <c r="A94" s="8"/>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -6082,9 +5916,7 @@
       <c r="AF94" s="39"/>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="8">
-        <v>44629</v>
-      </c>
+      <c r="A95" s="8"/>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -6118,9 +5950,7 @@
       <c r="AF95" s="39"/>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="8">
-        <v>44630</v>
-      </c>
+      <c r="A96" s="8"/>
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -6154,9 +5984,7 @@
       <c r="AF96" s="39"/>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="8">
-        <v>44631</v>
-      </c>
+      <c r="A97" s="8"/>
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -6190,9 +6018,7 @@
       <c r="AF97" s="39"/>
     </row>
     <row r="98" spans="1:32">
-      <c r="A98" s="8">
-        <v>44632</v>
-      </c>
+      <c r="A98" s="8"/>
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -6226,9 +6052,7 @@
       <c r="AF98" s="39"/>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="8">
-        <v>44633</v>
-      </c>
+      <c r="A99" s="8"/>
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -6262,9 +6086,7 @@
       <c r="AF99" s="39"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="8">
-        <v>44634</v>
-      </c>
+      <c r="A100" s="8"/>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -6298,9 +6120,7 @@
       <c r="AF100" s="39"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="8">
-        <v>44635</v>
-      </c>
+      <c r="A101" s="8"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -6334,9 +6154,7 @@
       <c r="AF101" s="39"/>
     </row>
     <row r="102" spans="1:32">
-      <c r="A102" s="8">
-        <v>44636</v>
-      </c>
+      <c r="A102" s="8"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -6370,9 +6188,7 @@
       <c r="AF102" s="39"/>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="8">
-        <v>44637</v>
-      </c>
+      <c r="A103" s="8"/>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -6406,9 +6222,7 @@
       <c r="AF103" s="39"/>
     </row>
     <row r="104" spans="1:32">
-      <c r="A104" s="8">
-        <v>44638</v>
-      </c>
+      <c r="A104" s="8"/>
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -6442,9 +6256,7 @@
       <c r="AF104" s="39"/>
     </row>
     <row r="105" spans="1:32">
-      <c r="A105" s="8">
-        <v>44639</v>
-      </c>
+      <c r="A105" s="8"/>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -6478,9 +6290,7 @@
       <c r="AF105" s="39"/>
     </row>
     <row r="106" spans="1:32">
-      <c r="A106" s="8">
-        <v>44640</v>
-      </c>
+      <c r="A106" s="8"/>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -6514,9 +6324,7 @@
       <c r="AF106" s="39"/>
     </row>
     <row r="107" spans="1:32">
-      <c r="A107" s="8">
-        <v>44641</v>
-      </c>
+      <c r="A107" s="8"/>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -6550,9 +6358,7 @@
       <c r="AF107" s="39"/>
     </row>
     <row r="108" spans="1:32">
-      <c r="A108" s="8">
-        <v>44642</v>
-      </c>
+      <c r="A108" s="8"/>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
@@ -6586,9 +6392,7 @@
       <c r="AF108" s="39"/>
     </row>
     <row r="109" spans="1:32">
-      <c r="A109" s="8">
-        <v>44643</v>
-      </c>
+      <c r="A109" s="8"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -6622,9 +6426,7 @@
       <c r="AF109" s="39"/>
     </row>
     <row r="110" spans="1:32">
-      <c r="A110" s="8">
-        <v>44644</v>
-      </c>
+      <c r="A110" s="8"/>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -6658,9 +6460,7 @@
       <c r="AF110" s="39"/>
     </row>
     <row r="111" spans="1:32">
-      <c r="A111" s="8">
-        <v>44645</v>
-      </c>
+      <c r="A111" s="8"/>
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -6694,9 +6494,7 @@
       <c r="AF111" s="39"/>
     </row>
     <row r="112" spans="1:32">
-      <c r="A112" s="8">
-        <v>44646</v>
-      </c>
+      <c r="A112" s="8"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -6730,9 +6528,7 @@
       <c r="AF112" s="39"/>
     </row>
     <row r="113" spans="1:32">
-      <c r="A113" s="8">
-        <v>44647</v>
-      </c>
+      <c r="A113" s="8"/>
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -6766,9 +6562,7 @@
       <c r="AF113" s="39"/>
     </row>
     <row r="114" spans="1:32">
-      <c r="A114" s="8">
-        <v>44648</v>
-      </c>
+      <c r="A114" s="8"/>
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -6802,9 +6596,7 @@
       <c r="AF114" s="39"/>
     </row>
     <row r="115" spans="1:32">
-      <c r="A115" s="8">
-        <v>44649</v>
-      </c>
+      <c r="A115" s="8"/>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/交易运行状态/明泰铝业.xlsx
@@ -231,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -269,7 +269,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,8 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -298,36 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -336,32 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,6 +353,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -383,18 +375,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,6 +399,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,13 +543,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,49 +663,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,19 +675,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,73 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,15 +769,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -793,43 +784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,6 +809,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -863,99 +848,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -964,52 +964,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,7 +1210,7 @@
             <v>JG_0000001</v>
           </cell>
           <cell r="B4" t="str">
-            <v>000001</v>
+            <v>JH_00015</v>
           </cell>
           <cell r="C4" t="str">
             <v>003040</v>
@@ -1278,30 +1278,28 @@
             <v>2.489</v>
           </cell>
           <cell r="Y4">
+            <v>0</v>
+          </cell>
+          <cell r="Z4">
             <v>2481.511</v>
           </cell>
-          <cell r="Z4">
+          <cell r="AA4">
             <v>27.43</v>
           </cell>
-          <cell r="AA4">
+          <cell r="AB4">
             <v>24.74</v>
           </cell>
-          <cell r="AB4">
+          <cell r="AC4">
             <v>0.0557620817843874</v>
           </cell>
-          <cell r="AC4">
+          <cell r="AD4">
             <v>-140.989</v>
           </cell>
-          <cell r="AD4">
+          <cell r="AE4">
             <v>-1.25900000000001</v>
           </cell>
-          <cell r="AE4">
+          <cell r="AF4">
             <v>-0.20859872611465</v>
-          </cell>
-          <cell r="AF4" t="str">
-            <v>1.入场时，忽略了距离最高点的距离;
-2.入场时，忽略了成交量的情况。
-3.作出出场决定时，一定要立即出场。不然也至少要设置最低的止损线。</v>
           </cell>
         </row>
         <row r="5">
@@ -1329,23 +1327,26 @@
             <v>2.77</v>
           </cell>
           <cell r="Y5">
+            <v>0</v>
+          </cell>
+          <cell r="Z5">
             <v>2762.23</v>
           </cell>
-          <cell r="Z5">
+          <cell r="AA5">
             <v>28.7</v>
           </cell>
-          <cell r="AA5">
+          <cell r="AB5">
             <v>27.5</v>
           </cell>
-          <cell r="AB5">
+          <cell r="AC5">
             <v>0.166666666666666</v>
           </cell>
-          <cell r="AC5">
+          <cell r="AD5">
             <v>139.73</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="AE5">
+          <cell r="AF5">
             <v>0.238853503184713</v>
           </cell>
         </row>
@@ -1354,7 +1355,7 @@
             <v>JG_0000003</v>
           </cell>
           <cell r="B6" t="str">
-            <v>000002</v>
+            <v>JH_00001</v>
           </cell>
           <cell r="C6">
             <v>600085</v>
@@ -1405,7 +1406,7 @@
             <v>34.7</v>
           </cell>
           <cell r="S6">
-            <v>-86.9325400000006</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="6">
@@ -1415,9 +1416,15 @@
           <cell r="Y6">
             <v>0</v>
           </cell>
+          <cell r="Z6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="AC6">
+          <cell r="AD6">
+            <v>0</v>
+          </cell>
+          <cell r="AE6">
             <v>0</v>
           </cell>
         </row>
@@ -1426,7 +1433,7 @@
             <v>JG_0000004</v>
           </cell>
           <cell r="B7" t="str">
-            <v>000003</v>
+            <v>JH_00002</v>
           </cell>
           <cell r="C7">
             <v>603867</v>
@@ -1495,23 +1502,27 @@
             <v>3.775</v>
           </cell>
           <cell r="Y7">
-            <v>3766.225</v>
+            <v>0.0755</v>
           </cell>
           <cell r="Z7">
+            <v>3766.1495</v>
+          </cell>
+          <cell r="AA7">
             <v>38.83</v>
           </cell>
-          <cell r="AA7">
+          <cell r="AB7">
             <v>36.3</v>
           </cell>
-          <cell r="AB7">
+          <cell r="AC7">
             <v>0.57312252964427</v>
           </cell>
-          <cell r="AC7">
-            <v>491.1596</v>
-          </cell>
-        </row>
-        <row r="7">
+          <cell r="AD7" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE7">
+            <v>491.0841</v>
+          </cell>
+          <cell r="AF7">
             <v>0.569977426636569</v>
           </cell>
         </row>
@@ -1520,7 +1531,7 @@
             <v>JG_0000005</v>
           </cell>
           <cell r="B8" t="str">
-            <v>000004</v>
+            <v>JH_00012</v>
           </cell>
           <cell r="C8" t="str">
             <v>002932</v>
@@ -1571,12 +1582,46 @@
             <v>67.53</v>
           </cell>
           <cell r="S8">
-            <v>463.999999999999</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="AF8" t="str">
-            <v>1.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场</v>
+            <v>0</v>
+          </cell>
+          <cell r="T8">
+            <v>44543</v>
+          </cell>
+          <cell r="U8">
+            <v>72.45</v>
+          </cell>
+          <cell r="V8">
+            <v>100</v>
+          </cell>
+          <cell r="W8">
+            <v>5</v>
+          </cell>
+          <cell r="X8">
+            <v>7.245</v>
+          </cell>
+          <cell r="Y8">
+            <v>0</v>
+          </cell>
+          <cell r="Z8">
+            <v>7232.755</v>
+          </cell>
+          <cell r="AA8">
+            <v>73</v>
+          </cell>
+          <cell r="AB8">
+            <v>71.75</v>
+          </cell>
+          <cell r="AC8">
+            <v>0.560000000000002</v>
+          </cell>
+          <cell r="AD8" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE8">
+            <v>20.755000000001</v>
+          </cell>
+          <cell r="AF8">
+            <v>0.0299448384554775</v>
           </cell>
         </row>
         <row r="9">
@@ -1584,7 +1629,7 @@
             <v>JG_0000006</v>
           </cell>
           <cell r="B9" t="str">
-            <v>000005</v>
+            <v>JH_00014</v>
           </cell>
           <cell r="C9">
             <v>605016</v>
@@ -1652,27 +1697,28 @@
             <v>3.015</v>
           </cell>
           <cell r="Y9">
-            <v>3006.985</v>
+            <v>0.0603</v>
           </cell>
           <cell r="Z9">
+            <v>3006.9247</v>
+          </cell>
+          <cell r="AA9">
             <v>30.69</v>
           </cell>
-          <cell r="AA9">
+          <cell r="AB9">
             <v>30.01</v>
           </cell>
-          <cell r="AB9">
+          <cell r="AC9">
             <v>0.205882352941172</v>
           </cell>
-          <cell r="AC9">
-            <v>-52.0760799999998</v>
-          </cell>
-        </row>
-        <row r="9">
+          <cell r="AD9" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE9">
+            <v>-52.1363799999999</v>
+          </cell>
+          <cell r="AF9">
             <v>-0.0622009569377991</v>
-          </cell>
-          <cell r="AF9" t="str">
-            <v>1.入场时，忽略了价格的收缩幅度。价格的收缩幅度不够，导致入场过早。</v>
           </cell>
         </row>
         <row r="10">
@@ -1680,7 +1726,7 @@
             <v>JG_0000007</v>
           </cell>
           <cell r="B10" t="str">
-            <v>000006</v>
+            <v>JH_00013</v>
           </cell>
           <cell r="C10">
             <v>603010</v>
@@ -1748,27 +1794,28 @@
             <v>2.783</v>
           </cell>
           <cell r="Y10">
-            <v>2775.217</v>
+            <v>0.05566</v>
           </cell>
           <cell r="Z10">
+            <v>2775.16134</v>
+          </cell>
+          <cell r="AA10">
             <v>28.4</v>
           </cell>
-          <cell r="AA10">
+          <cell r="AB10">
             <v>27.44</v>
           </cell>
-          <cell r="AB10">
+          <cell r="AC10">
             <v>0.406249999999998</v>
           </cell>
-          <cell r="AC10">
-            <v>-210.84262</v>
-          </cell>
-        </row>
-        <row r="10">
+          <cell r="AD10" t="str">
+            <v>-</v>
+          </cell>
           <cell r="AE10">
+            <v>-210.89828</v>
+          </cell>
+          <cell r="AF10">
             <v>-0.196428571428572</v>
-          </cell>
-          <cell r="AF10" t="str">
-            <v>1.入场中枢点错误</v>
           </cell>
         </row>
         <row r="11">
@@ -1776,7 +1823,7 @@
             <v>JG_0000008</v>
           </cell>
           <cell r="B11" t="str">
-            <v>000035</v>
+            <v>JH_00016</v>
           </cell>
           <cell r="C11" t="str">
             <v>002585</v>
@@ -1845,30 +1892,28 @@
             <v>2.67</v>
           </cell>
           <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
             <v>2662.33</v>
           </cell>
-          <cell r="Z11">
+          <cell r="AA11">
             <v>28.18</v>
           </cell>
-          <cell r="AA11">
+          <cell r="AB11">
             <v>25.99</v>
           </cell>
-          <cell r="AB11">
+          <cell r="AC11">
             <v>0.324200913242009</v>
           </cell>
-          <cell r="AC11">
+          <cell r="AD11" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE11">
             <v>-179.67</v>
           </cell>
-        </row>
-        <row r="11">
-          <cell r="AE11">
+          <cell r="AF11">
             <v>-0.218300653594771</v>
-          </cell>
-          <cell r="AF11" t="str">
-            <v>1.宁可错过，不要根据临时计划入场。
-2.跳空时，不要立即入场，应待价格下跌到原预估价格一半时，再待其上涨到预估价格时入场。
-3.作出出场决定是使用止损线倒逼出场。
-</v>
           </cell>
         </row>
         <row r="12">
@@ -1876,7 +1921,7 @@
             <v>JG_0000009</v>
           </cell>
           <cell r="B12" t="str">
-            <v>000021</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C12">
             <v>603867</v>
@@ -1924,10 +1969,34 @@
             <v>0.504273504273506</v>
           </cell>
           <cell r="R12">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S12">
-            <v>880.150919999999</v>
+            <v>620.150919999999</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="X12">
+            <v>0</v>
+          </cell>
+          <cell r="Y12">
+            <v>0</v>
+          </cell>
+          <cell r="Z12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AC12" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="AE12">
+            <v>0</v>
+          </cell>
+          <cell r="AF12">
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
@@ -1935,7 +2004,7 @@
             <v>JG_0000010</v>
           </cell>
           <cell r="B13" t="str">
-            <v>000027</v>
+            <v>JH_00011</v>
           </cell>
           <cell r="C13">
             <v>603867</v>
@@ -1983,10 +2052,34 @@
             <v>0.28205128205128</v>
           </cell>
           <cell r="R13">
-            <v>33.38</v>
+            <v>34.68</v>
           </cell>
           <cell r="S13">
-            <v>932.15196</v>
+            <v>672.15196</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="X13">
+            <v>0</v>
+          </cell>
+          <cell r="Y13">
+            <v>0</v>
+          </cell>
+          <cell r="Z13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AC13" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="AE13">
+            <v>0</v>
+          </cell>
+          <cell r="AF13">
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
@@ -1994,7 +2087,7 @@
             <v>JG_0000011</v>
           </cell>
           <cell r="B14" t="str">
-            <v>000028</v>
+            <v>JH_00009</v>
           </cell>
           <cell r="C14" t="str">
             <v>000733</v>
@@ -2045,7 +2138,46 @@
             <v>110.4</v>
           </cell>
           <cell r="S14">
-            <v>566.999999999999</v>
+            <v>0</v>
+          </cell>
+          <cell r="T14">
+            <v>44543</v>
+          </cell>
+          <cell r="U14">
+            <v>111.66</v>
+          </cell>
+          <cell r="V14">
+            <v>100</v>
+          </cell>
+          <cell r="W14">
+            <v>5</v>
+          </cell>
+          <cell r="X14">
+            <v>11.166</v>
+          </cell>
+          <cell r="Y14">
+            <v>2.2332</v>
+          </cell>
+          <cell r="Z14">
+            <v>11147.6008</v>
+          </cell>
+          <cell r="AA14">
+            <v>115.99</v>
+          </cell>
+          <cell r="AB14">
+            <v>110.08</v>
+          </cell>
+          <cell r="AC14">
+            <v>0.267343485617597</v>
+          </cell>
+          <cell r="AD14" t="str">
+            <v>-</v>
+          </cell>
+          <cell r="AE14">
+            <v>-454.3992</v>
+          </cell>
+          <cell r="AF14">
+            <v>-0.166473541908073</v>
           </cell>
         </row>
         <row r="15">
@@ -2053,7 +2185,7 @@
             <v>JG_0000012</v>
           </cell>
           <cell r="B15" t="str">
-            <v>000029</v>
+            <v>JH_00008</v>
           </cell>
           <cell r="C15">
             <v>601677</v>
@@ -2105,6 +2237,14 @@
           </cell>
           <cell r="S15">
             <v>334.0783</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="X15">
+            <v>0</v>
+          </cell>
+          <cell r="Y15">
+            <v>0</v>
           </cell>
         </row>
         <row r="16">
@@ -2112,7 +2252,7 @@
             <v>JG_0000013</v>
           </cell>
           <cell r="B16" t="str">
-            <v>000030</v>
+            <v>JH_00007</v>
           </cell>
           <cell r="C16">
             <v>603688</v>
@@ -2164,6 +2304,14 @@
           </cell>
           <cell r="S16">
             <v>589.1286</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="X16">
+            <v>0</v>
+          </cell>
+          <cell r="Y16">
+            <v>0</v>
           </cell>
         </row>
         <row r="17">
@@ -2171,7 +2319,58 @@
             <v>JG_0000014</v>
           </cell>
           <cell r="B17" t="str">
-            <v>000031</v>
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C17">
+            <v>600032</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E17">
+            <v>44543</v>
+          </cell>
+          <cell r="F17">
+            <v>17.01</v>
+          </cell>
+          <cell r="G17">
+            <v>100</v>
+          </cell>
+          <cell r="H17">
+            <v>5</v>
+          </cell>
+          <cell r="I17">
+            <v>0.03402</v>
+          </cell>
+          <cell r="J17">
+            <v>1706.03402</v>
+          </cell>
+          <cell r="K17">
+            <v>17.5</v>
+          </cell>
+          <cell r="L17">
+            <v>16.48</v>
+          </cell>
+          <cell r="M17">
+            <v>18.44</v>
+          </cell>
+          <cell r="N17">
+            <v>14.86</v>
+          </cell>
+          <cell r="O17">
+            <v>3.58</v>
+          </cell>
+          <cell r="P17">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q17">
+            <v>0.480392156862744</v>
+          </cell>
+          <cell r="R17">
+            <v>15.5</v>
+          </cell>
+          <cell r="S17">
+            <v>161.03402</v>
           </cell>
         </row>
         <row r="18">
@@ -2179,23 +2378,68 @@
             <v>JG_0000015</v>
           </cell>
           <cell r="B18" t="str">
-            <v>000032</v>
+            <v>JH_00006</v>
+          </cell>
+          <cell r="C18">
+            <v>600032</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>浙江新能</v>
+          </cell>
+          <cell r="E18">
+            <v>44543</v>
+          </cell>
+          <cell r="F18">
+            <v>17.19</v>
+          </cell>
+          <cell r="G18">
+            <v>200</v>
+          </cell>
+          <cell r="H18">
+            <v>5</v>
+          </cell>
+          <cell r="I18">
+            <v>0.06876</v>
+          </cell>
+          <cell r="J18">
+            <v>3443.06876</v>
+          </cell>
+          <cell r="K18">
+            <v>17.5</v>
+          </cell>
+          <cell r="L18">
+            <v>16.48</v>
+          </cell>
+          <cell r="M18">
+            <v>18.44</v>
+          </cell>
+          <cell r="N18">
+            <v>14.86</v>
+          </cell>
+          <cell r="O18">
+            <v>3.58</v>
+          </cell>
+          <cell r="P18">
+            <v>85.91</v>
+          </cell>
+          <cell r="Q18">
+            <v>0.30392156862745</v>
+          </cell>
+          <cell r="R18">
+            <v>15.5</v>
+          </cell>
+          <cell r="S18">
+            <v>348.06876</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>JG_0000016</v>
           </cell>
-          <cell r="B19" t="str">
-            <v>000033</v>
-          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>JG_0000017</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>000034</v>
           </cell>
         </row>
       </sheetData>
@@ -2467,11 +2711,11 @@
   <dimension ref="A1:AG486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="AG7" sqref="AG7:AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -2940,30 +3184,77 @@
         <v>-3.24</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="A8" s="7">
         <v>44544</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="B8" s="8">
+        <v>37.2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>38.69</v>
+      </c>
+      <c r="D8" s="8">
+        <v>38.69</v>
+      </c>
+      <c r="E8" s="8">
+        <v>36.7</v>
+      </c>
+      <c r="F8" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="G8" s="8">
+        <v>34.93</v>
+      </c>
+      <c r="H8" s="8">
+        <v>15.06</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <f>(B8-B7)/B7</f>
+        <v>-0.038511243215301</v>
+      </c>
+      <c r="K8" s="15">
+        <f>(B8-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE))/VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10006,6,FALSE)</f>
+        <v>-0.0498084291187738</v>
+      </c>
+      <c r="L8" s="15">
+        <f>I8/(ROW()-5)</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="M8" s="21">
+        <f>IF(B8&gt;(D8-(D8-E8)/2),1,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f>IF(B8&lt;F8,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="20" t="str">
+        <f>IF(I8/(ROW()-5)&gt;0.5,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="T8" s="20" t="str">
+        <f>IF(SUM($M$6:$M8)&gt;0,"是","否")</f>
+        <v>否</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="8"/>
       <c r="X8" s="31"/>
@@ -2974,7 +3265,14 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="31"/>
       <c r="AE8" s="31"/>
-      <c r="AF8" s="36"/>
+      <c r="AF8" s="36">
+        <f>IF(AND(G8-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$15:$BL10005,6,FALSE)&gt;0,G8&gt;G7),G8,AF7)</f>
+        <v>35.91</v>
+      </c>
+      <c r="AG8" s="38">
+        <f>AF8-VLOOKUP([1]交易计划及执行表!$A$15,[1]交易计划及执行表!$A$4:$AF10007,6,FALSE)</f>
+        <v>-3.24</v>
+      </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="7">
